--- a/AL NOOR BUILDING MATERIALS TRADING CO LLC.xlsx
+++ b/AL NOOR BUILDING MATERIALS TRADING CO LLC.xlsx
@@ -1,28 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\2018 ABACUS CLIENTS\45. AL NOOR\AL NOOR BUILDING MATERIALS TRADING CO LLC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Amin\PO_SQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB290E2-D2CE-4568-9CB3-32ADF7FBDFB1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7305" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="PO" sheetId="7" r:id="rId1"/>
-    <sheet name="SQ" sheetId="2" r:id="rId2"/>
-    <sheet name="PI" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="6" state="hidden" r:id="rId4"/>
+    <sheet name="tracking sheet" sheetId="8" r:id="rId1"/>
+    <sheet name="PO" sheetId="7" r:id="rId2"/>
+    <sheet name="SQ" sheetId="10" r:id="rId3"/>
+    <sheet name="PI" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="6" state="hidden" r:id="rId5"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId6"/>
+  </externalReferences>
   <definedNames>
     <definedName name="__IntlFixup" hidden="1">TRUE</definedName>
     <definedName name="_Order1" hidden="1">0</definedName>
-    <definedName name="Data.Dump" localSheetId="2" hidden="1">OFFSET([0]!Data.Top.Left,1,0)</definedName>
-    <definedName name="Data.Dump" localSheetId="0" hidden="1">OFFSET([0]!Data.Top.Left,1,0)</definedName>
+    <definedName name="Data.Dump" localSheetId="3" hidden="1">OFFSET([0]!Data.Top.Left,1,0)</definedName>
+    <definedName name="Data.Dump" localSheetId="1" hidden="1">OFFSET([0]!Data.Top.Left,1,0)</definedName>
     <definedName name="Data.Dump" hidden="1">OFFSET([0]!Data.Top.Left,1,0)</definedName>
     <definedName name="HTML_CodePage" hidden="1">1252</definedName>
     <definedName name="HTML_Control" hidden="1">{"'Leverage'!$B$2:$M$418"}</definedName>
@@ -40,22 +43,20 @@
     <definedName name="HTML_Title" hidden="1">"leverage"</definedName>
     <definedName name="Macro1">#N/A</definedName>
     <definedName name="Macro2">#N/A</definedName>
-    <definedName name="Ownership" localSheetId="2" hidden="1">OFFSET([0]!Data.Top.Left,1,0)</definedName>
-    <definedName name="Ownership" localSheetId="0" hidden="1">OFFSET([0]!Data.Top.Left,1,0)</definedName>
+    <definedName name="Ownership" localSheetId="3" hidden="1">OFFSET([0]!Data.Top.Left,1,0)</definedName>
+    <definedName name="Ownership" localSheetId="1" hidden="1">OFFSET([0]!Data.Top.Left,1,0)</definedName>
     <definedName name="Ownership" hidden="1">OFFSET([0]!Data.Top.Left,1,0)</definedName>
     <definedName name="P">#N/A</definedName>
-    <definedName name="PACK" localSheetId="2" hidden="1">OFFSET([0]!Data.Top.Left,1,0)</definedName>
-    <definedName name="PACK" localSheetId="0" hidden="1">OFFSET([0]!Data.Top.Left,1,0)</definedName>
+    <definedName name="PACK" localSheetId="3" hidden="1">OFFSET([0]!Data.Top.Left,1,0)</definedName>
+    <definedName name="PACK" localSheetId="1" hidden="1">OFFSET([0]!Data.Top.Left,1,0)</definedName>
     <definedName name="PACK" hidden="1">OFFSET([0]!Data.Top.Left,1,0)</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">PI!$A$1:$F$36</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">PO!$A$1:$F$35</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">SQ!$A$1:$F$36</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">PI!$21:$21</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">PO!$21:$21</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">SQ!$21:$21</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">PI!$A$1:$F$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">PO!$A$1:$F$35</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">PI!$21:$21</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">PO!$21:$21</definedName>
     <definedName name="valuevx">42.314159</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="60">
   <si>
     <t>EXPORTER:</t>
   </si>
@@ -100,9 +101,6 @@
     <t>Shipment Terms:Ex Factory</t>
   </si>
   <si>
-    <t>REPRESENTATIVE OF IMPORTER :</t>
-  </si>
-  <si>
     <t>Sr. NO</t>
   </si>
   <si>
@@ -125,12 +123,6 @@
   </si>
   <si>
     <t>TOTAL AMOUNT</t>
-  </si>
-  <si>
-    <t>Date:22/12/2017</t>
-  </si>
-  <si>
-    <t>Reference:SA/SQ/1242</t>
   </si>
   <si>
     <t>PROFORMA INVOICE</t>
@@ -189,19 +181,88 @@
   <si>
     <t>BILL TO THE REPRESENTATIVE OF IMPORTER :</t>
   </si>
+  <si>
+    <t>Invoice Date :</t>
+  </si>
+  <si>
+    <t>Invoice No:</t>
+  </si>
+  <si>
+    <t>IMPORTER REPRESENTATIVE</t>
+  </si>
+  <si>
+    <t>DELIVER TO:</t>
+  </si>
+  <si>
+    <t>PAYMENT TERMS</t>
+  </si>
+  <si>
+    <t>SHIPMENT TERMS</t>
+  </si>
+  <si>
+    <t>SHIPMENT MODE</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>UM</t>
+  </si>
+  <si>
+    <t>Unit Price</t>
+  </si>
+  <si>
+    <t>Total Price</t>
+  </si>
+  <si>
+    <t>SUBTOTAL</t>
+  </si>
+  <si>
+    <t>OTHER</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>REMARKS:</t>
+  </si>
+  <si>
+    <t>Packaging:</t>
+  </si>
+  <si>
+    <t>Origin:</t>
+  </si>
+  <si>
+    <t>Loading Port:</t>
+  </si>
+  <si>
+    <t>Discharge Port:</t>
+  </si>
+  <si>
+    <t>AUTHORIZED SIGNATORY:</t>
+  </si>
+  <si>
+    <t>VT-171</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_([$AED]\ * #,##0.00_);_([$AED]\ * \(#,##0.00\);_([$AED]\ * &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="8">
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_([$AED]\ * #,##0.00_);_([$AED]\ * \(#,##0.00\);_([$AED]\ * &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="169" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="170" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="171" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="40" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -394,8 +455,58 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF002060"/>
+      <name val="Lithograph"/>
+      <family val="5"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF002060"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF002060"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -417,6 +528,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,13 +687,13 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1"/>
@@ -630,7 +753,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
@@ -639,7 +762,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -648,16 +771,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="4" applyFont="1"/>
@@ -667,7 +790,7 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="39" fontId="27" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
@@ -680,7 +803,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="43" fontId="29" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="29" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -690,11 +813,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="29" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="29" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="29" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="29" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -722,12 +845,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -735,20 +852,20 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="24" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -758,20 +875,20 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -783,16 +900,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -803,44 +920,171 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="38" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="38" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="38" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="38" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="38" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="38" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="38" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="38" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="38" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="38" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="38" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Normal 2 2 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 2" xfId="4"/>
+    <cellStyle name="Normal 2 2 3" xfId="5"/>
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -854,6 +1098,4427 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Tracking Sheet output"/>
+      <sheetName val="PO"/>
+      <sheetName val="SQ"/>
+      <sheetName val="PI"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>REF</v>
+          </cell>
+          <cell r="B1" t="str">
+            <v>repExporter</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>cityOfRepExporter</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v>exporter</v>
+          </cell>
+          <cell r="E1" t="str">
+            <v>cityOfExporter</v>
+          </cell>
+          <cell r="F1" t="str">
+            <v>importer</v>
+          </cell>
+          <cell r="G1" t="str">
+            <v>cityOfImporter</v>
+          </cell>
+          <cell r="H1" t="str">
+            <v>repImporter</v>
+          </cell>
+          <cell r="I1" t="str">
+            <v>cityOfrepImporter</v>
+          </cell>
+          <cell r="J1" t="str">
+            <v>Origin</v>
+          </cell>
+          <cell r="K1" t="str">
+            <v>laoding</v>
+          </cell>
+          <cell r="L1" t="str">
+            <v>Discharge</v>
+          </cell>
+          <cell r="M1" t="str">
+            <v>totalAmount</v>
+          </cell>
+          <cell r="N1" t="str">
+            <v>amountToWord</v>
+          </cell>
+          <cell r="O1" t="str">
+            <v>p1name</v>
+          </cell>
+          <cell r="P1" t="str">
+            <v>p1qty</v>
+          </cell>
+          <cell r="Q1" t="str">
+            <v>p1unit</v>
+          </cell>
+          <cell r="R1" t="str">
+            <v>p1unitp</v>
+          </cell>
+          <cell r="S1" t="str">
+            <v>p1total</v>
+          </cell>
+          <cell r="T1" t="str">
+            <v>p2name</v>
+          </cell>
+          <cell r="U1" t="str">
+            <v>p2qty</v>
+          </cell>
+          <cell r="V1" t="str">
+            <v>p2unit</v>
+          </cell>
+          <cell r="W1" t="str">
+            <v>p2unitp</v>
+          </cell>
+          <cell r="X1" t="str">
+            <v>p2total</v>
+          </cell>
+          <cell r="Y1" t="str">
+            <v>p3name</v>
+          </cell>
+          <cell r="Z1" t="str">
+            <v>p3qty</v>
+          </cell>
+          <cell r="AA1" t="str">
+            <v>p3unit</v>
+          </cell>
+          <cell r="AB1" t="str">
+            <v>p3unitp</v>
+          </cell>
+          <cell r="AC1" t="str">
+            <v>p3total</v>
+          </cell>
+          <cell r="AD1" t="str">
+            <v>p4name</v>
+          </cell>
+          <cell r="AE1" t="str">
+            <v>p4qty</v>
+          </cell>
+          <cell r="AF1" t="str">
+            <v>p4unit</v>
+          </cell>
+          <cell r="AG1" t="str">
+            <v>p4unitp</v>
+          </cell>
+          <cell r="AH1" t="str">
+            <v>p4total</v>
+          </cell>
+          <cell r="AI1" t="str">
+            <v>p5name</v>
+          </cell>
+          <cell r="AJ1" t="str">
+            <v>p5qty</v>
+          </cell>
+          <cell r="AK1" t="str">
+            <v>p5unit</v>
+          </cell>
+          <cell r="AL1" t="str">
+            <v>p5unitp</v>
+          </cell>
+          <cell r="AM1" t="str">
+            <v>p5total</v>
+          </cell>
+          <cell r="AN1" t="str">
+            <v>numOfClient</v>
+          </cell>
+          <cell r="AO1" t="str">
+            <v>currency</v>
+          </cell>
+          <cell r="AP1" t="str">
+            <v>date</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>VT-240</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>WATRIN TRADING DWC LLC</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v>Dubai, U.A.E</v>
+          </cell>
+          <cell r="D2" t="str">
+            <v>GRAVINA TUFI</v>
+          </cell>
+          <cell r="E2" t="str">
+            <v>Puglia, Italy</v>
+          </cell>
+          <cell r="F2" t="str">
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
+          </cell>
+          <cell r="G2" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="H2" t="str">
+            <v>VISION TRADING INTERNATIONAL FZE</v>
+          </cell>
+          <cell r="I2" t="str">
+            <v>Dubai, U.A.E</v>
+          </cell>
+          <cell r="J2" t="str">
+            <v xml:space="preserve"> Italy</v>
+          </cell>
+          <cell r="K2" t="str">
+            <v>Puglia, Italy</v>
+          </cell>
+          <cell r="L2" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="M2">
+            <v>420646.24</v>
+          </cell>
+          <cell r="N2" t="str">
+            <v>Four Hundred Twenty Thousand Six Hundred Forty Six 24.0/100 canadian Dollars Only</v>
+          </cell>
+          <cell r="O2" t="str">
+            <v>Exterior Safety Electric Motorized Thermal Insulated Security Overhead Sectional Garage Door</v>
+          </cell>
+          <cell r="P2">
+            <v>61</v>
+          </cell>
+          <cell r="Q2" t="str">
+            <v>PCS</v>
+          </cell>
+          <cell r="R2">
+            <v>895.52</v>
+          </cell>
+          <cell r="S2">
+            <v>54626.720000000001</v>
+          </cell>
+          <cell r="T2" t="str">
+            <v>Construction Building Passenger Hoist</v>
+          </cell>
+          <cell r="U2">
+            <v>6</v>
+          </cell>
+          <cell r="V2" t="str">
+            <v>PCS</v>
+          </cell>
+          <cell r="W2">
+            <v>61003.25</v>
+          </cell>
+          <cell r="X2">
+            <v>366019.52</v>
+          </cell>
+          <cell r="AO2" t="str">
+            <v>CAD</v>
+          </cell>
+          <cell r="AP2">
+            <v>43433</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>VT-159</v>
+          </cell>
+          <cell r="D3" t="str">
+            <v>ACAR KIMYA ANONIM SIRKETI</v>
+          </cell>
+          <cell r="E3" t="str">
+            <v>Istanbul, Turkey</v>
+          </cell>
+          <cell r="F3" t="str">
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
+          </cell>
+          <cell r="G3" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="H3" t="str">
+            <v>VISION TRADING INTERNATIONAL FZE</v>
+          </cell>
+          <cell r="I3" t="str">
+            <v>Dubai, U.A.E</v>
+          </cell>
+          <cell r="J3" t="str">
+            <v xml:space="preserve"> Turkey</v>
+          </cell>
+          <cell r="K3" t="str">
+            <v>Istanbul, Turkey</v>
+          </cell>
+          <cell r="L3" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="M3">
+            <v>80000</v>
+          </cell>
+          <cell r="N3" t="str">
+            <v>Eighty Thousand Euros Only</v>
+          </cell>
+          <cell r="O3" t="str">
+            <v>Aluminum Awing Windows with Timber Reveal Install</v>
+          </cell>
+          <cell r="P3">
+            <v>800</v>
+          </cell>
+          <cell r="Q3" t="str">
+            <v>SQUARE METERS</v>
+          </cell>
+          <cell r="R3">
+            <v>100</v>
+          </cell>
+          <cell r="S3">
+            <v>80000</v>
+          </cell>
+          <cell r="AO3" t="str">
+            <v>EURO</v>
+          </cell>
+          <cell r="AP3">
+            <v>43424</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>VT-162</v>
+          </cell>
+          <cell r="D4" t="str">
+            <v>AKKIM YAPI KIMYASALLARI SAN VE TIC AS</v>
+          </cell>
+          <cell r="E4" t="str">
+            <v>Istanbul, Turkey</v>
+          </cell>
+          <cell r="F4" t="str">
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
+          </cell>
+          <cell r="G4" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="H4" t="str">
+            <v>VISION TRADING INTERNATIONAL FZE</v>
+          </cell>
+          <cell r="I4" t="str">
+            <v>Dubai, U.A.E</v>
+          </cell>
+          <cell r="J4" t="str">
+            <v xml:space="preserve"> Turkey</v>
+          </cell>
+          <cell r="K4" t="str">
+            <v>Istanbul, Turkey</v>
+          </cell>
+          <cell r="L4" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="M4">
+            <v>113494.44</v>
+          </cell>
+          <cell r="N4" t="str">
+            <v>One Hundred Thirteen Thousand Four Hundred Ninety Four 44.0/100 Euros Only</v>
+          </cell>
+          <cell r="O4" t="str">
+            <v>Solid Surface / Building Material Artificial Quartz Stone with SGS</v>
+          </cell>
+          <cell r="P4">
+            <v>2026</v>
+          </cell>
+          <cell r="Q4" t="str">
+            <v>PCS</v>
+          </cell>
+          <cell r="R4">
+            <v>56.02</v>
+          </cell>
+          <cell r="S4">
+            <v>113494.44</v>
+          </cell>
+          <cell r="AO4" t="str">
+            <v>EURO</v>
+          </cell>
+          <cell r="AP4">
+            <v>43424</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>VT-160</v>
+          </cell>
+          <cell r="D5" t="str">
+            <v>FI JOINT VENTURE PTY LTD</v>
+          </cell>
+          <cell r="E5" t="str">
+            <v>Leederville, Australia</v>
+          </cell>
+          <cell r="F5" t="str">
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
+          </cell>
+          <cell r="G5" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="H5" t="str">
+            <v>VISION TRADING INTERNATIONAL FZE</v>
+          </cell>
+          <cell r="I5" t="str">
+            <v>Dubai, U.A.E</v>
+          </cell>
+          <cell r="J5" t="str">
+            <v xml:space="preserve"> Australia</v>
+          </cell>
+          <cell r="K5" t="str">
+            <v>Leederville, Australia</v>
+          </cell>
+          <cell r="L5" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="M5">
+            <v>100000</v>
+          </cell>
+          <cell r="N5" t="str">
+            <v>One Hundred Thousand Euros Only</v>
+          </cell>
+          <cell r="O5" t="str">
+            <v>Modern Aluminum Sliding Door and Windows</v>
+          </cell>
+          <cell r="P5">
+            <v>1000</v>
+          </cell>
+          <cell r="Q5" t="str">
+            <v>SQUARE METERS</v>
+          </cell>
+          <cell r="R5">
+            <v>100</v>
+          </cell>
+          <cell r="S5">
+            <v>100000</v>
+          </cell>
+          <cell r="AO5" t="str">
+            <v>EURO</v>
+          </cell>
+          <cell r="AP5">
+            <v>43430</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>VT-156</v>
+          </cell>
+          <cell r="D6" t="str">
+            <v>FRT METAL VE SANAYI DIS TICAR</v>
+          </cell>
+          <cell r="E6" t="str">
+            <v>Istanbul, Turkey</v>
+          </cell>
+          <cell r="F6" t="str">
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
+          </cell>
+          <cell r="G6" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="H6" t="str">
+            <v>VISION TRADING INTERNATIONAL FZE</v>
+          </cell>
+          <cell r="I6" t="str">
+            <v>Dubai, U.A.E</v>
+          </cell>
+          <cell r="J6" t="str">
+            <v xml:space="preserve"> Turkey</v>
+          </cell>
+          <cell r="K6" t="str">
+            <v>Istanbul, Turkey</v>
+          </cell>
+          <cell r="L6" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="M6">
+            <v>41601.599999999999</v>
+          </cell>
+          <cell r="N6" t="str">
+            <v>Forty One Thousand Six Hundred One 60.0/100 Euros Only</v>
+          </cell>
+          <cell r="O6" t="str">
+            <v>Reliable Quality Motoer Lift 2 Ton Building Construction Materials Hoist Passenger Home Hydraulic Sightseeing Elevator</v>
+          </cell>
+          <cell r="P6">
+            <v>20</v>
+          </cell>
+          <cell r="Q6" t="str">
+            <v>SETS</v>
+          </cell>
+          <cell r="R6">
+            <v>2080.08</v>
+          </cell>
+          <cell r="S6">
+            <v>41601.599999999999</v>
+          </cell>
+          <cell r="AO6" t="str">
+            <v>EURO</v>
+          </cell>
+          <cell r="AP6">
+            <v>43424</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>VT-158</v>
+          </cell>
+          <cell r="B7" t="str">
+            <v>IBS INTERNATIONAL GENERAL TRADING LLC</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>Dubai, United Arab Emirates</v>
+          </cell>
+          <cell r="D7" t="str">
+            <v>SAI INTERNATIONAL TRADING COMPANY</v>
+          </cell>
+          <cell r="E7" t="str">
+            <v>Kerala, India</v>
+          </cell>
+          <cell r="F7" t="str">
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
+          </cell>
+          <cell r="G7" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="H7" t="str">
+            <v>VISION TRADING INTERNATIONAL FZE</v>
+          </cell>
+          <cell r="I7" t="str">
+            <v>Dubai, U.A.E</v>
+          </cell>
+          <cell r="J7" t="str">
+            <v xml:space="preserve"> India</v>
+          </cell>
+          <cell r="K7" t="str">
+            <v>Kerala, India</v>
+          </cell>
+          <cell r="L7" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="M7">
+            <v>70000</v>
+          </cell>
+          <cell r="N7" t="str">
+            <v>Seventy Thousand Euros Only</v>
+          </cell>
+          <cell r="O7" t="str">
+            <v>Q345 Large Span Steel Structure</v>
+          </cell>
+          <cell r="P7">
+            <v>1272</v>
+          </cell>
+          <cell r="Q7" t="str">
+            <v>M3</v>
+          </cell>
+          <cell r="R7">
+            <v>55.03</v>
+          </cell>
+          <cell r="S7">
+            <v>70000</v>
+          </cell>
+          <cell r="AN7" t="str">
+            <v xml:space="preserve">17.IBS </v>
+          </cell>
+          <cell r="AO7" t="str">
+            <v>EURO</v>
+          </cell>
+          <cell r="AP7">
+            <v>43414</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>VT-161</v>
+          </cell>
+          <cell r="B8" t="str">
+            <v>IBS INTERNATIONAL GENERAL TRADING LLC</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v>Dubai, United Arab Emirates</v>
+          </cell>
+          <cell r="D8" t="str">
+            <v>SAI INTERNATIONAL TRADING COMPANY</v>
+          </cell>
+          <cell r="E8" t="str">
+            <v>Kerala, India</v>
+          </cell>
+          <cell r="F8" t="str">
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
+          </cell>
+          <cell r="G8" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="H8" t="str">
+            <v>VISION TRADING INTERNATIONAL FZE</v>
+          </cell>
+          <cell r="I8" t="str">
+            <v>Dubai, U.A.E</v>
+          </cell>
+          <cell r="J8" t="str">
+            <v xml:space="preserve"> India</v>
+          </cell>
+          <cell r="K8" t="str">
+            <v>Kerala, India</v>
+          </cell>
+          <cell r="L8" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="M8">
+            <v>107317.45</v>
+          </cell>
+          <cell r="N8" t="str">
+            <v>One Hundred Seven Thousand Three Hundred Seventeen 45.0/100 Euros Only</v>
+          </cell>
+          <cell r="O8" t="str">
+            <v>0.125-3.0mm Building Material Gi Galvanized Steel Coil</v>
+          </cell>
+          <cell r="P8">
+            <v>178</v>
+          </cell>
+          <cell r="Q8" t="str">
+            <v>TONS</v>
+          </cell>
+          <cell r="R8">
+            <v>602.91</v>
+          </cell>
+          <cell r="S8">
+            <v>107317.45</v>
+          </cell>
+          <cell r="AN8" t="str">
+            <v xml:space="preserve">17.IBS </v>
+          </cell>
+          <cell r="AO8" t="str">
+            <v>EURO</v>
+          </cell>
+          <cell r="AP8">
+            <v>43434</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>VT-163</v>
+          </cell>
+          <cell r="B9" t="str">
+            <v>IBS INTERNATIONAL GENERAL TRADING LLC</v>
+          </cell>
+          <cell r="C9" t="str">
+            <v>Dubai, United Arab Emirates</v>
+          </cell>
+          <cell r="D9" t="str">
+            <v>SAI INTERNATIONAL TRADING COMPANY</v>
+          </cell>
+          <cell r="E9" t="str">
+            <v>Kerala, India</v>
+          </cell>
+          <cell r="F9" t="str">
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
+          </cell>
+          <cell r="G9" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="H9" t="str">
+            <v>VISION TRADING INTERNATIONAL FZE</v>
+          </cell>
+          <cell r="I9" t="str">
+            <v>Dubai, U.A.E</v>
+          </cell>
+          <cell r="J9" t="str">
+            <v xml:space="preserve"> India</v>
+          </cell>
+          <cell r="K9" t="str">
+            <v>Kerala, India</v>
+          </cell>
+          <cell r="L9" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="M9">
+            <v>710000</v>
+          </cell>
+          <cell r="N9" t="str">
+            <v>Seven Hundred Ten Thousand Euros Only</v>
+          </cell>
+          <cell r="O9" t="str">
+            <v>Building Construction Material Steel Frabrication Structure</v>
+          </cell>
+          <cell r="P9">
+            <v>4333</v>
+          </cell>
+          <cell r="Q9" t="str">
+            <v>SETS</v>
+          </cell>
+          <cell r="R9">
+            <v>101.12</v>
+          </cell>
+          <cell r="S9">
+            <v>438152.96000000002</v>
+          </cell>
+          <cell r="T9" t="str">
+            <v>Modern Aluminum Sliding Door and Windows</v>
+          </cell>
+          <cell r="U9">
+            <v>2718</v>
+          </cell>
+          <cell r="V9" t="str">
+            <v>SQUARE METERS</v>
+          </cell>
+          <cell r="W9">
+            <v>100.02</v>
+          </cell>
+          <cell r="X9">
+            <v>271847.03999999998</v>
+          </cell>
+          <cell r="AN9" t="str">
+            <v xml:space="preserve">17.IBS </v>
+          </cell>
+          <cell r="AO9" t="str">
+            <v>EURO</v>
+          </cell>
+          <cell r="AP9">
+            <v>43424</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>VT-151</v>
+          </cell>
+          <cell r="D10" t="str">
+            <v>IGP ENGINEERS PVT LTD</v>
+          </cell>
+          <cell r="E10" t="str">
+            <v>Chennai, India</v>
+          </cell>
+          <cell r="F10" t="str">
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
+          </cell>
+          <cell r="G10" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="H10" t="str">
+            <v>VISION TRADING INTERNATIONAL FZE</v>
+          </cell>
+          <cell r="I10" t="str">
+            <v>Dubai, U.A.E</v>
+          </cell>
+          <cell r="J10" t="str">
+            <v xml:space="preserve"> India</v>
+          </cell>
+          <cell r="K10" t="str">
+            <v>Chennai, India</v>
+          </cell>
+          <cell r="L10" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="M10">
+            <v>15000</v>
+          </cell>
+          <cell r="N10" t="str">
+            <v>Fifteen Thousand Euros Only</v>
+          </cell>
+          <cell r="O10" t="str">
+            <v>Fireproof Soundproof Spraying Cottonthermal Insulation</v>
+          </cell>
+          <cell r="P10">
+            <v>33</v>
+          </cell>
+          <cell r="Q10" t="str">
+            <v>TONS</v>
+          </cell>
+          <cell r="R10">
+            <v>454.55</v>
+          </cell>
+          <cell r="S10">
+            <v>15000</v>
+          </cell>
+          <cell r="AO10" t="str">
+            <v>EURO</v>
+          </cell>
+          <cell r="AP10">
+            <v>43424</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>VT-154</v>
+          </cell>
+          <cell r="D11" t="str">
+            <v>KALE KIMYA</v>
+          </cell>
+          <cell r="E11" t="str">
+            <v>Istanbul, Turkey</v>
+          </cell>
+          <cell r="F11" t="str">
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
+          </cell>
+          <cell r="G11" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="H11" t="str">
+            <v>VISION TRADING INTERNATIONAL FZE</v>
+          </cell>
+          <cell r="I11" t="str">
+            <v>Dubai, U.A.E</v>
+          </cell>
+          <cell r="J11" t="str">
+            <v xml:space="preserve"> Turkey</v>
+          </cell>
+          <cell r="K11" t="str">
+            <v>Istanbul, Turkey</v>
+          </cell>
+          <cell r="L11" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="M11">
+            <v>35532</v>
+          </cell>
+          <cell r="N11" t="str">
+            <v>Thirty Five Thousand Five Hundred Thirty Two Euros Only</v>
+          </cell>
+          <cell r="O11" t="str">
+            <v>Fireproof Soundproof Spraying Cottonthermal Insulation</v>
+          </cell>
+          <cell r="P11">
+            <v>78</v>
+          </cell>
+          <cell r="Q11" t="str">
+            <v>TONS</v>
+          </cell>
+          <cell r="R11">
+            <v>455.54</v>
+          </cell>
+          <cell r="S11">
+            <v>35532</v>
+          </cell>
+          <cell r="AO11" t="str">
+            <v>EURO</v>
+          </cell>
+          <cell r="AP11">
+            <v>43424</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>VT-155</v>
+          </cell>
+          <cell r="D12" t="str">
+            <v>KEMRON KIMYA SAN VE TIC A S</v>
+          </cell>
+          <cell r="E12" t="str">
+            <v>Istanbul, Turkey</v>
+          </cell>
+          <cell r="F12" t="str">
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
+          </cell>
+          <cell r="G12" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="H12" t="str">
+            <v>VISION TRADING INTERNATIONAL FZE</v>
+          </cell>
+          <cell r="I12" t="str">
+            <v>Dubai, U.A.E</v>
+          </cell>
+          <cell r="J12" t="str">
+            <v xml:space="preserve"> Turkey</v>
+          </cell>
+          <cell r="K12" t="str">
+            <v>Istanbul, Turkey</v>
+          </cell>
+          <cell r="L12" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="M12">
+            <v>38970</v>
+          </cell>
+          <cell r="N12" t="str">
+            <v>Thirty Eight Thousand Nine Hundred Seventy Euros Only</v>
+          </cell>
+          <cell r="O12" t="str">
+            <v>Wrought Iron Front Door</v>
+          </cell>
+          <cell r="P12">
+            <v>16</v>
+          </cell>
+          <cell r="Q12" t="str">
+            <v>SETS</v>
+          </cell>
+          <cell r="R12">
+            <v>2435.62</v>
+          </cell>
+          <cell r="S12">
+            <v>38970</v>
+          </cell>
+          <cell r="AO12" t="str">
+            <v>EURO</v>
+          </cell>
+          <cell r="AP12">
+            <v>43424</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>VT-157</v>
+          </cell>
+          <cell r="B13" t="str">
+            <v>RAMZ AL HAQEEQA GENERAL TRADING</v>
+          </cell>
+          <cell r="C13" t="str">
+            <v>Dubai, U.A.E</v>
+          </cell>
+          <cell r="D13" t="str">
+            <v>SUZHOU CLEANSTAR ELECTRIC APPLIANCE CO. LTD</v>
+          </cell>
+          <cell r="E13" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="F13" t="str">
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
+          </cell>
+          <cell r="G13" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="H13" t="str">
+            <v>VISION TRADING INTERNATIONAL FZE</v>
+          </cell>
+          <cell r="I13" t="str">
+            <v>Dubai, U.A.E</v>
+          </cell>
+          <cell r="J13" t="str">
+            <v xml:space="preserve"> China</v>
+          </cell>
+          <cell r="K13" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="L13" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="M13">
+            <v>45980</v>
+          </cell>
+          <cell r="N13" t="str">
+            <v>Forty Five Thousand Nine Hundred Eighty Euros Only</v>
+          </cell>
+          <cell r="O13" t="str">
+            <v>Brick Force Wire Mesh Welding Machine</v>
+          </cell>
+          <cell r="P13">
+            <v>3</v>
+          </cell>
+          <cell r="Q13" t="str">
+            <v>SETS</v>
+          </cell>
+          <cell r="R13">
+            <v>15326.67</v>
+          </cell>
+          <cell r="S13">
+            <v>45980</v>
+          </cell>
+          <cell r="AO13" t="str">
+            <v>EURO</v>
+          </cell>
+          <cell r="AP13">
+            <v>43423</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>VT-152</v>
+          </cell>
+          <cell r="D14" t="str">
+            <v>SYMRISE AG</v>
+          </cell>
+          <cell r="E14" t="str">
+            <v>Holzminden, Germany</v>
+          </cell>
+          <cell r="F14" t="str">
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
+          </cell>
+          <cell r="G14" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="H14" t="str">
+            <v>VISION TRADING INTERNATIONAL FZE</v>
+          </cell>
+          <cell r="I14" t="str">
+            <v>Dubai, U.A.E</v>
+          </cell>
+          <cell r="J14" t="str">
+            <v xml:space="preserve"> Germany</v>
+          </cell>
+          <cell r="K14" t="str">
+            <v>Holzminden, Germany</v>
+          </cell>
+          <cell r="L14" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="M14">
+            <v>20367.599999999999</v>
+          </cell>
+          <cell r="N14" t="str">
+            <v>Twenty Thousand Three Hundred Sixty Seven 60.0/100 Euros Only</v>
+          </cell>
+          <cell r="O14" t="str">
+            <v>FacadeÂ BuildingÂ DecorativeÂ MaterialÂ ACP/Mcp/A2 Fr Aluminum Composite Panel</v>
+          </cell>
+          <cell r="P14">
+            <v>581</v>
+          </cell>
+          <cell r="Q14" t="str">
+            <v>SQUARE METERS</v>
+          </cell>
+          <cell r="R14">
+            <v>35.06</v>
+          </cell>
+          <cell r="S14">
+            <v>20367.599999999999</v>
+          </cell>
+          <cell r="AO14" t="str">
+            <v>EURO</v>
+          </cell>
+          <cell r="AP14">
+            <v>43424</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>VT-106</v>
+          </cell>
+          <cell r="B15" t="str">
+            <v>IBS INTERNATIONAL GENERAL TRADING LLC</v>
+          </cell>
+          <cell r="C15" t="str">
+            <v>Dubai, United Arab Emirates</v>
+          </cell>
+          <cell r="D15" t="str">
+            <v>SAI INTERNATIONAL TRADING COMPANY</v>
+          </cell>
+          <cell r="E15" t="str">
+            <v>Kerala, India</v>
+          </cell>
+          <cell r="F15" t="str">
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
+          </cell>
+          <cell r="G15" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="H15" t="str">
+            <v>VISION TRADING INTERNATIONAL FZE</v>
+          </cell>
+          <cell r="I15" t="str">
+            <v>Dubai, U.A.E</v>
+          </cell>
+          <cell r="J15" t="str">
+            <v xml:space="preserve"> India</v>
+          </cell>
+          <cell r="K15" t="str">
+            <v>Kerala, India</v>
+          </cell>
+          <cell r="L15" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="M15">
+            <v>7513.3</v>
+          </cell>
+          <cell r="N15" t="str">
+            <v>Seven Thousand Five Hundred Thirteen 30.0/100 U.S.Dollars Only</v>
+          </cell>
+          <cell r="O15" t="str">
+            <v>Galvanized Angle Bar</v>
+          </cell>
+          <cell r="P15">
+            <v>8</v>
+          </cell>
+          <cell r="Q15" t="str">
+            <v>TONS</v>
+          </cell>
+          <cell r="R15">
+            <v>939.16</v>
+          </cell>
+          <cell r="S15">
+            <v>7513.3</v>
+          </cell>
+          <cell r="AN15" t="str">
+            <v xml:space="preserve">17.IBS </v>
+          </cell>
+          <cell r="AO15" t="str">
+            <v>USD</v>
+          </cell>
+          <cell r="AP15">
+            <v>43434</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>VT-165</v>
+          </cell>
+          <cell r="B16" t="str">
+            <v>IBS INTERNATIONAL GENERAL TRADING LLC</v>
+          </cell>
+          <cell r="C16" t="str">
+            <v>Dubai, United Arab Emirates</v>
+          </cell>
+          <cell r="D16" t="str">
+            <v>SAI INTERNATIONAL TRADING COMPANY</v>
+          </cell>
+          <cell r="E16" t="str">
+            <v>Kerala, India</v>
+          </cell>
+          <cell r="F16" t="str">
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
+          </cell>
+          <cell r="G16" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="H16" t="str">
+            <v>VISION TRADING INTERNATIONAL FZE</v>
+          </cell>
+          <cell r="I16" t="str">
+            <v>Dubai, U.A.E</v>
+          </cell>
+          <cell r="J16" t="str">
+            <v xml:space="preserve"> India</v>
+          </cell>
+          <cell r="K16" t="str">
+            <v>Kerala, India</v>
+          </cell>
+          <cell r="L16" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="M16">
+            <v>4950</v>
+          </cell>
+          <cell r="N16" t="str">
+            <v>Four Thousand Nine Hundred Fifty Euros Only</v>
+          </cell>
+          <cell r="O16" t="str">
+            <v>600X1200mmÂ Polished Porcelain Floor Tile &amp; Wall Tile</v>
+          </cell>
+          <cell r="P16">
+            <v>374</v>
+          </cell>
+          <cell r="Q16" t="str">
+            <v>SQUARE METERS</v>
+          </cell>
+          <cell r="R16">
+            <v>13.24</v>
+          </cell>
+          <cell r="S16">
+            <v>4950</v>
+          </cell>
+          <cell r="AN16" t="str">
+            <v xml:space="preserve">17.IBS </v>
+          </cell>
+          <cell r="AO16" t="str">
+            <v>EURO</v>
+          </cell>
+          <cell r="AP16">
+            <v>43490</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>VT-166</v>
+          </cell>
+          <cell r="B17" t="str">
+            <v>IBS INTERNATIONAL GENERAL TRADING LLC</v>
+          </cell>
+          <cell r="C17" t="str">
+            <v>Dubai, United Arab Emirates</v>
+          </cell>
+          <cell r="D17" t="str">
+            <v>SAI INTERNATIONAL TRADING COMPANY</v>
+          </cell>
+          <cell r="E17" t="str">
+            <v>Kerala, India</v>
+          </cell>
+          <cell r="F17" t="str">
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
+          </cell>
+          <cell r="G17" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="H17" t="str">
+            <v>VISION TRADING INTERNATIONAL FZE</v>
+          </cell>
+          <cell r="I17" t="str">
+            <v>Dubai, U.A.E</v>
+          </cell>
+          <cell r="J17" t="str">
+            <v xml:space="preserve"> India</v>
+          </cell>
+          <cell r="K17" t="str">
+            <v>Kerala, India</v>
+          </cell>
+          <cell r="L17" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="M17">
+            <v>12100</v>
+          </cell>
+          <cell r="N17" t="str">
+            <v>Twelve Thousand One Hundred Euros Only</v>
+          </cell>
+          <cell r="O17" t="str">
+            <v>Thermal Insulation Building Construction Decorative Materials</v>
+          </cell>
+          <cell r="P17">
+            <v>121</v>
+          </cell>
+          <cell r="Q17" t="str">
+            <v>MS</v>
+          </cell>
+          <cell r="R17">
+            <v>100</v>
+          </cell>
+          <cell r="S17">
+            <v>12100</v>
+          </cell>
+          <cell r="AN17" t="str">
+            <v xml:space="preserve">17.IBS </v>
+          </cell>
+          <cell r="AO17" t="str">
+            <v>EURO</v>
+          </cell>
+          <cell r="AP17">
+            <v>43483</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>VT-171</v>
+          </cell>
+          <cell r="D18" t="str">
+            <v>AFS TEKNIK DANISMANLIK SAN.VE TIC.LTD.STI</v>
+          </cell>
+          <cell r="E18" t="str">
+            <v>Sakarya, Turkey</v>
+          </cell>
+          <cell r="F18" t="str">
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
+          </cell>
+          <cell r="G18" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="H18" t="str">
+            <v>VISION TRADING INTERNATIONAL FZE</v>
+          </cell>
+          <cell r="I18" t="str">
+            <v>Dubai, U.A.E</v>
+          </cell>
+          <cell r="J18" t="str">
+            <v xml:space="preserve"> Turkey</v>
+          </cell>
+          <cell r="K18" t="str">
+            <v>Sakarya, Turkey</v>
+          </cell>
+          <cell r="L18" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="M18">
+            <v>49855</v>
+          </cell>
+          <cell r="N18" t="str">
+            <v>Forty Nine Thousand Eight Hundred Fifty Five Euros Only</v>
+          </cell>
+          <cell r="O18" t="str">
+            <v>Competitive Price Steel StructureÂ ConstructionÂ Hangar</v>
+          </cell>
+          <cell r="P18">
+            <v>623</v>
+          </cell>
+          <cell r="Q18" t="str">
+            <v>SQUARE METERS</v>
+          </cell>
+          <cell r="R18">
+            <v>80.02</v>
+          </cell>
+          <cell r="S18">
+            <v>49855</v>
+          </cell>
+          <cell r="AO18" t="str">
+            <v>EURO</v>
+          </cell>
+          <cell r="AP18">
+            <v>43479</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>VT-173</v>
+          </cell>
+          <cell r="B19" t="str">
+            <v>AL HOLOL AL BADEELA GENERAL TRADING</v>
+          </cell>
+          <cell r="C19" t="str">
+            <v>Dubai, U.A.E</v>
+          </cell>
+          <cell r="D19" t="str">
+            <v>KOLON GLOBAL CORPORATION</v>
+          </cell>
+          <cell r="E19" t="str">
+            <v>Incheon, South Korea</v>
+          </cell>
+          <cell r="F19" t="str">
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
+          </cell>
+          <cell r="G19" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="H19" t="str">
+            <v>VISION TRADING INTERNATIONAL FZE</v>
+          </cell>
+          <cell r="I19" t="str">
+            <v>Dubai, U.A.E</v>
+          </cell>
+          <cell r="J19" t="str">
+            <v xml:space="preserve"> South Korea</v>
+          </cell>
+          <cell r="K19" t="str">
+            <v>Incheon, South Korea</v>
+          </cell>
+          <cell r="L19" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="M19">
+            <v>60717</v>
+          </cell>
+          <cell r="N19" t="str">
+            <v>Sixty Thousand Seven Hundred Seventeen Euros Only</v>
+          </cell>
+          <cell r="O19" t="str">
+            <v>Corrugated Prime Cold Rolled Hot Dipped Zinc Prepainted Color Coated PPGI PPGL Galvalume Galvanized Steel Sheet</v>
+          </cell>
+          <cell r="P19">
+            <v>67</v>
+          </cell>
+          <cell r="Q19" t="str">
+            <v>TONS</v>
+          </cell>
+          <cell r="R19">
+            <v>906.22</v>
+          </cell>
+          <cell r="S19">
+            <v>60717</v>
+          </cell>
+          <cell r="AO19" t="str">
+            <v>EURO</v>
+          </cell>
+          <cell r="AP19">
+            <v>43486</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>VT-179</v>
+          </cell>
+          <cell r="D20" t="str">
+            <v>HEST AG</v>
+          </cell>
+          <cell r="E20" t="str">
+            <v>Berlin, Germany</v>
+          </cell>
+          <cell r="F20" t="str">
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
+          </cell>
+          <cell r="G20" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="H20" t="str">
+            <v>VISION TRADING INTERNATIONAL FZE</v>
+          </cell>
+          <cell r="I20" t="str">
+            <v>Dubai, U.A.E</v>
+          </cell>
+          <cell r="J20" t="str">
+            <v xml:space="preserve"> Germany</v>
+          </cell>
+          <cell r="K20" t="str">
+            <v>Berlin, Germany</v>
+          </cell>
+          <cell r="L20" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="M20">
+            <v>134707</v>
+          </cell>
+          <cell r="N20" t="str">
+            <v>One Hundred Thirty Four Thousand Seven Hundred Seven Euros Only</v>
+          </cell>
+          <cell r="O20" t="str">
+            <v>Artificial Quartz Stone with SGS Standards (black Calacatta)</v>
+          </cell>
+          <cell r="P20">
+            <v>2245</v>
+          </cell>
+          <cell r="Q20" t="str">
+            <v>PCS</v>
+          </cell>
+          <cell r="R20">
+            <v>60</v>
+          </cell>
+          <cell r="S20">
+            <v>134707</v>
+          </cell>
+          <cell r="AO20" t="str">
+            <v>EURO</v>
+          </cell>
+          <cell r="AP20">
+            <v>43479</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>VT-185</v>
+          </cell>
+          <cell r="B21" t="str">
+            <v>IBS INTERNATIONAL GENERAL TRADING LLC</v>
+          </cell>
+          <cell r="C21" t="str">
+            <v>Dubai, United Arab Emirates</v>
+          </cell>
+          <cell r="D21" t="str">
+            <v>SAI INTERNATIONAL TRADING COMPANY</v>
+          </cell>
+          <cell r="E21" t="str">
+            <v>Kerala, India</v>
+          </cell>
+          <cell r="F21" t="str">
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
+          </cell>
+          <cell r="G21" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="H21" t="str">
+            <v>VISION TRADING INTERNATIONAL FZE</v>
+          </cell>
+          <cell r="I21" t="str">
+            <v>Dubai, U.A.E</v>
+          </cell>
+          <cell r="J21" t="str">
+            <v xml:space="preserve"> India</v>
+          </cell>
+          <cell r="K21" t="str">
+            <v>Kerala, India</v>
+          </cell>
+          <cell r="L21" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="M21">
+            <v>200000</v>
+          </cell>
+          <cell r="N21" t="str">
+            <v>Two Hundred Thousand Euros Only</v>
+          </cell>
+          <cell r="O21" t="str">
+            <v>0.125-3.0mm Building Material Gi Galvanized Steel Coil</v>
+          </cell>
+          <cell r="P21">
+            <v>333</v>
+          </cell>
+          <cell r="Q21" t="str">
+            <v>TONS</v>
+          </cell>
+          <cell r="R21">
+            <v>600.6</v>
+          </cell>
+          <cell r="S21">
+            <v>200000</v>
+          </cell>
+          <cell r="AN21" t="str">
+            <v xml:space="preserve">17.IBS </v>
+          </cell>
+          <cell r="AO21" t="str">
+            <v>EURO</v>
+          </cell>
+          <cell r="AP21">
+            <v>43472</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>VT-190</v>
+          </cell>
+          <cell r="B22" t="str">
+            <v>IBS INTERNATIONAL GENERAL TRADING LLC</v>
+          </cell>
+          <cell r="C22" t="str">
+            <v>Dubai, United Arab Emirates</v>
+          </cell>
+          <cell r="D22" t="str">
+            <v>SAI INTERNATIONAL TRADING COMPANY</v>
+          </cell>
+          <cell r="E22" t="str">
+            <v>Kerala, India</v>
+          </cell>
+          <cell r="F22" t="str">
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
+          </cell>
+          <cell r="G22" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="H22" t="str">
+            <v>VISION TRADING INTERNATIONAL FZE</v>
+          </cell>
+          <cell r="I22" t="str">
+            <v>Dubai, U.A.E</v>
+          </cell>
+          <cell r="J22" t="str">
+            <v xml:space="preserve"> India</v>
+          </cell>
+          <cell r="K22" t="str">
+            <v>Kerala, India</v>
+          </cell>
+          <cell r="L22" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="M22">
+            <v>499332.6</v>
+          </cell>
+          <cell r="N22" t="str">
+            <v>Four Hundred Ninety Nine Thousand Three Hundred Thirty Two 60.0/100 Euros Only</v>
+          </cell>
+          <cell r="O22" t="str">
+            <v>Machinery Lightweight Wall Panel Machine</v>
+          </cell>
+          <cell r="P22">
+            <v>4</v>
+          </cell>
+          <cell r="Q22" t="str">
+            <v>TONS</v>
+          </cell>
+          <cell r="R22">
+            <v>11235.96</v>
+          </cell>
+          <cell r="S22">
+            <v>44943.839999999997</v>
+          </cell>
+          <cell r="T22" t="str">
+            <v>PPGI Steel Coil/Color Coated Galvanized Steel Coil</v>
+          </cell>
+          <cell r="U22">
+            <v>757</v>
+          </cell>
+          <cell r="V22" t="str">
+            <v>TONS</v>
+          </cell>
+          <cell r="W22">
+            <v>600.25</v>
+          </cell>
+          <cell r="X22">
+            <v>454388.76</v>
+          </cell>
+          <cell r="AN22" t="str">
+            <v xml:space="preserve">17.IBS </v>
+          </cell>
+          <cell r="AO22" t="str">
+            <v>EURO</v>
+          </cell>
+          <cell r="AP22">
+            <v>43490</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>VT-191</v>
+          </cell>
+          <cell r="B23" t="str">
+            <v>IBS INTERNATIONAL GENERAL TRADING LLC</v>
+          </cell>
+          <cell r="C23" t="str">
+            <v>Dubai, United Arab Emirates</v>
+          </cell>
+          <cell r="D23" t="str">
+            <v>SAI INTERNATIONAL TRADING COMPANY</v>
+          </cell>
+          <cell r="E23" t="str">
+            <v>Kerala, India</v>
+          </cell>
+          <cell r="F23" t="str">
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
+          </cell>
+          <cell r="G23" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="H23" t="str">
+            <v>VISION TRADING INTERNATIONAL FZE</v>
+          </cell>
+          <cell r="I23" t="str">
+            <v>Dubai, U.A.E</v>
+          </cell>
+          <cell r="J23" t="str">
+            <v xml:space="preserve"> India</v>
+          </cell>
+          <cell r="K23" t="str">
+            <v>Kerala, India</v>
+          </cell>
+          <cell r="L23" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="M23">
+            <v>500000</v>
+          </cell>
+          <cell r="N23" t="str">
+            <v>Five Hundred Thousand Euros Only</v>
+          </cell>
+          <cell r="O23" t="str">
+            <v>Remote ControlÂ BuildingÂ MaterialÂ Security Fast Speed PVC Folding Aluminium Door (Hz-FC05623)</v>
+          </cell>
+          <cell r="P23">
+            <v>202</v>
+          </cell>
+          <cell r="Q23" t="str">
+            <v>PCS</v>
+          </cell>
+          <cell r="R23">
+            <v>1348.31</v>
+          </cell>
+          <cell r="S23">
+            <v>272358.62</v>
+          </cell>
+          <cell r="T23" t="str">
+            <v>Aluminium ExtrusionÂ BuildingÂ MaterialÂ Horizontal Sliding Windows</v>
+          </cell>
+          <cell r="U23">
+            <v>3252</v>
+          </cell>
+          <cell r="V23" t="str">
+            <v>SQUARE METERS</v>
+          </cell>
+          <cell r="W23">
+            <v>70</v>
+          </cell>
+          <cell r="X23">
+            <v>227641.38</v>
+          </cell>
+          <cell r="AN23" t="str">
+            <v xml:space="preserve">17.IBS </v>
+          </cell>
+          <cell r="AO23" t="str">
+            <v>EURO</v>
+          </cell>
+          <cell r="AP23">
+            <v>43479</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>VT-177</v>
+          </cell>
+          <cell r="D24" t="str">
+            <v>NEW MULBERRY PTE LTD</v>
+          </cell>
+          <cell r="E24" t="str">
+            <v>Singapore, Singapore</v>
+          </cell>
+          <cell r="F24" t="str">
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
+          </cell>
+          <cell r="G24" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="H24" t="str">
+            <v>VISION TRADING INTERNATIONAL FZE</v>
+          </cell>
+          <cell r="I24" t="str">
+            <v>Dubai, U.A.E</v>
+          </cell>
+          <cell r="J24" t="str">
+            <v xml:space="preserve"> Singapore</v>
+          </cell>
+          <cell r="K24" t="str">
+            <v>Singapore, Singapore</v>
+          </cell>
+          <cell r="L24" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="M24">
+            <v>107010</v>
+          </cell>
+          <cell r="N24" t="str">
+            <v>One Hundred Seven Thousand Ten Euros Only</v>
+          </cell>
+          <cell r="O24" t="str">
+            <v>Economic Embossed Coated Aluminum Coil</v>
+          </cell>
+          <cell r="P24">
+            <v>44</v>
+          </cell>
+          <cell r="Q24" t="str">
+            <v>TONS</v>
+          </cell>
+          <cell r="R24">
+            <v>2432.0500000000002</v>
+          </cell>
+          <cell r="S24">
+            <v>107010</v>
+          </cell>
+          <cell r="AO24" t="str">
+            <v>EURO</v>
+          </cell>
+          <cell r="AP24">
+            <v>43484</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>VT-176</v>
+          </cell>
+          <cell r="D25" t="str">
+            <v>PETROFER ENDUSTRIYEL YAGLAR SANAYI VE TICARET A.S.</v>
+          </cell>
+          <cell r="E25" t="str">
+            <v>Izmir, Turkey</v>
+          </cell>
+          <cell r="F25" t="str">
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
+          </cell>
+          <cell r="G25" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="H25" t="str">
+            <v>VISION TRADING INTERNATIONAL FZE</v>
+          </cell>
+          <cell r="I25" t="str">
+            <v>Dubai, U.A.E</v>
+          </cell>
+          <cell r="J25" t="str">
+            <v xml:space="preserve"> Turkey</v>
+          </cell>
+          <cell r="K25" t="str">
+            <v>Izmir, Turkey</v>
+          </cell>
+          <cell r="L25" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="M25">
+            <v>100010</v>
+          </cell>
+          <cell r="N25" t="str">
+            <v>One Hundred Thousand Ten Euros Only</v>
+          </cell>
+          <cell r="O25" t="str">
+            <v>2017Â BuildingÂ MaterialÂ Rapid Rolling High Speed Roller Shutter Doors (Hz-FC061)</v>
+          </cell>
+          <cell r="P25">
+            <v>83</v>
+          </cell>
+          <cell r="Q25" t="str">
+            <v>PCS</v>
+          </cell>
+          <cell r="R25">
+            <v>1204.94</v>
+          </cell>
+          <cell r="S25">
+            <v>100010</v>
+          </cell>
+          <cell r="AO25" t="str">
+            <v>EURO</v>
+          </cell>
+          <cell r="AP25">
+            <v>43486</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v>VT-188</v>
+          </cell>
+          <cell r="D26" t="str">
+            <v>SICOR S P A</v>
+          </cell>
+          <cell r="E26" t="str">
+            <v>Rovereto, Italy</v>
+          </cell>
+          <cell r="F26" t="str">
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
+          </cell>
+          <cell r="G26" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="H26" t="str">
+            <v>VISION TRADING INTERNATIONAL FZE</v>
+          </cell>
+          <cell r="I26" t="str">
+            <v>Dubai, U.A.E</v>
+          </cell>
+          <cell r="J26" t="str">
+            <v xml:space="preserve"> Italy</v>
+          </cell>
+          <cell r="K26" t="str">
+            <v>Rovereto, Italy</v>
+          </cell>
+          <cell r="L26" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="M26">
+            <v>432020</v>
+          </cell>
+          <cell r="N26" t="str">
+            <v>Four Hundred Thirty Two Thousand Twenty Euros Only</v>
+          </cell>
+          <cell r="O26" t="str">
+            <v>Q235 Rectangular Steel Tube</v>
+          </cell>
+          <cell r="P26">
+            <v>1</v>
+          </cell>
+          <cell r="Q26" t="str">
+            <v>TONS</v>
+          </cell>
+          <cell r="R26">
+            <v>730.34</v>
+          </cell>
+          <cell r="S26">
+            <v>730.34</v>
+          </cell>
+          <cell r="T26" t="str">
+            <v>Aluminum Curtain Wall Panel</v>
+          </cell>
+          <cell r="U26">
+            <v>7188</v>
+          </cell>
+          <cell r="V26" t="str">
+            <v>SQUARE METERS</v>
+          </cell>
+          <cell r="W26">
+            <v>60</v>
+          </cell>
+          <cell r="X26">
+            <v>431289.66</v>
+          </cell>
+          <cell r="AO26" t="str">
+            <v>EURO</v>
+          </cell>
+          <cell r="AP26">
+            <v>43472</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27" t="str">
+            <v>VT-170-CL</v>
+          </cell>
+          <cell r="D27" t="str">
+            <v>KAVALIERGLASS, INC.</v>
+          </cell>
+          <cell r="E27" t="str">
+            <v>Sazava, Czech Repulic</v>
+          </cell>
+          <cell r="F27" t="str">
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
+          </cell>
+          <cell r="G27" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="H27" t="str">
+            <v>VISION TRADING INTERNATIONAL FZE</v>
+          </cell>
+          <cell r="I27" t="str">
+            <v>Dubai, U.A.E</v>
+          </cell>
+          <cell r="J27" t="str">
+            <v xml:space="preserve"> Czech Repulic</v>
+          </cell>
+          <cell r="K27" t="str">
+            <v>Sazava, Czech Repulic</v>
+          </cell>
+          <cell r="L27" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="M27">
+            <v>75504.08</v>
+          </cell>
+          <cell r="N27" t="str">
+            <v>Seventy Five Thousand Five Hundred Four 8.0/100 Euros Only</v>
+          </cell>
+          <cell r="O27" t="str">
+            <v>316 Grade Stainless Steel Round Bar</v>
+          </cell>
+          <cell r="P27">
+            <v>19</v>
+          </cell>
+          <cell r="Q27" t="str">
+            <v>TONS</v>
+          </cell>
+          <cell r="R27">
+            <v>3973.9</v>
+          </cell>
+          <cell r="S27">
+            <v>75504.08</v>
+          </cell>
+          <cell r="AO27" t="str">
+            <v>EURO</v>
+          </cell>
+          <cell r="AP27">
+            <v>43475</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28" t="str">
+            <v>VT-126</v>
+          </cell>
+          <cell r="D28" t="str">
+            <v>ADW METALLURGICAL CONSUMABLES CO LTD</v>
+          </cell>
+          <cell r="E28" t="str">
+            <v>Dalian, China</v>
+          </cell>
+          <cell r="F28" t="str">
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
+          </cell>
+          <cell r="G28" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="H28" t="str">
+            <v>VISION TRADING INTERNATIONAL FZE</v>
+          </cell>
+          <cell r="I28" t="str">
+            <v>Dubai, U.A.E</v>
+          </cell>
+          <cell r="J28" t="str">
+            <v xml:space="preserve"> China</v>
+          </cell>
+          <cell r="K28" t="str">
+            <v>Dalian, China</v>
+          </cell>
+          <cell r="L28" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="M28">
+            <v>100000</v>
+          </cell>
+          <cell r="N28" t="str">
+            <v>One Hundred Thousand U.S.Dollars Only</v>
+          </cell>
+          <cell r="O28" t="str">
+            <v>Light Steel Structure Prefabricated Carport  Warehouse  Workshop (Q345B/Q235B)</v>
+          </cell>
+          <cell r="P28">
+            <v>4000</v>
+          </cell>
+          <cell r="Q28" t="str">
+            <v>SQUARE METERS</v>
+          </cell>
+          <cell r="R28">
+            <v>25</v>
+          </cell>
+          <cell r="S28">
+            <v>100000</v>
+          </cell>
+          <cell r="AO28" t="str">
+            <v>USD</v>
+          </cell>
+          <cell r="AP28">
+            <v>43490</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29" t="str">
+            <v>VT-128</v>
+          </cell>
+          <cell r="B29" t="str">
+            <v>AXICOR DWC LLC</v>
+          </cell>
+          <cell r="C29" t="str">
+            <v>Dubai, U.A.E</v>
+          </cell>
+          <cell r="D29" t="str">
+            <v>AL JABOR TRADING COMPANY</v>
+          </cell>
+          <cell r="E29" t="str">
+            <v>Doha, Qatar</v>
+          </cell>
+          <cell r="F29" t="str">
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
+          </cell>
+          <cell r="G29" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="H29" t="str">
+            <v>VISION TRADING INTERNATIONAL FZE</v>
+          </cell>
+          <cell r="I29" t="str">
+            <v>Dubai, U.A.E</v>
+          </cell>
+          <cell r="J29" t="str">
+            <v xml:space="preserve"> Qatar</v>
+          </cell>
+          <cell r="K29" t="str">
+            <v>Doha, Qatar</v>
+          </cell>
+          <cell r="L29" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="M29">
+            <v>180000</v>
+          </cell>
+          <cell r="N29" t="str">
+            <v>One Hundred Eighty Thousand U.S.Dollars Only</v>
+          </cell>
+          <cell r="O29" t="str">
+            <v>Steel Structure Warehouse/Workshop 005</v>
+          </cell>
+          <cell r="P29">
+            <v>480</v>
+          </cell>
+          <cell r="Q29" t="str">
+            <v>SQUARE METERS</v>
+          </cell>
+          <cell r="R29">
+            <v>150</v>
+          </cell>
+          <cell r="S29">
+            <v>72000</v>
+          </cell>
+          <cell r="T29" t="str">
+            <v>Q195 Q235 Q345 Carbon Welded Steel Pipe</v>
+          </cell>
+          <cell r="U29">
+            <v>216</v>
+          </cell>
+          <cell r="V29" t="str">
+            <v>TONS</v>
+          </cell>
+          <cell r="W29">
+            <v>500</v>
+          </cell>
+          <cell r="X29">
+            <v>108000</v>
+          </cell>
+          <cell r="AO29" t="str">
+            <v>USD</v>
+          </cell>
+          <cell r="AP29">
+            <v>43478</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30" t="str">
+            <v>VT-118</v>
+          </cell>
+          <cell r="B30" t="str">
+            <v>IBS INTERNATIONAL GENERAL TRADING LLC</v>
+          </cell>
+          <cell r="C30" t="str">
+            <v>Dubai, United Arab Emirates</v>
+          </cell>
+          <cell r="D30" t="str">
+            <v>SAI INTERNATIONAL TRADING COMPANY</v>
+          </cell>
+          <cell r="E30" t="str">
+            <v>Kerala, India</v>
+          </cell>
+          <cell r="F30" t="str">
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
+          </cell>
+          <cell r="G30" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="H30" t="str">
+            <v>VISION TRADING INTERNATIONAL FZE</v>
+          </cell>
+          <cell r="I30" t="str">
+            <v>Dubai, U.A.E</v>
+          </cell>
+          <cell r="J30" t="str">
+            <v xml:space="preserve"> India</v>
+          </cell>
+          <cell r="K30" t="str">
+            <v>Kerala, India</v>
+          </cell>
+          <cell r="L30" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="M30">
+            <v>10000</v>
+          </cell>
+          <cell r="N30" t="str">
+            <v>Ten Thousand U.S.Dollars Only</v>
+          </cell>
+          <cell r="O30" t="str">
+            <v>Hollow Stone Pillar Granite Roman Column</v>
+          </cell>
+          <cell r="P30">
+            <v>13</v>
+          </cell>
+          <cell r="Q30" t="str">
+            <v>PCS</v>
+          </cell>
+          <cell r="R30">
+            <v>769.23</v>
+          </cell>
+          <cell r="S30">
+            <v>10000</v>
+          </cell>
+          <cell r="AN30" t="str">
+            <v xml:space="preserve">17.IBS </v>
+          </cell>
+          <cell r="AO30" t="str">
+            <v>USD</v>
+          </cell>
+          <cell r="AP30">
+            <v>43492</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31" t="str">
+            <v>VT-127</v>
+          </cell>
+          <cell r="B31" t="str">
+            <v>IBS INTERNATIONAL GENERAL TRADING LLC</v>
+          </cell>
+          <cell r="C31" t="str">
+            <v>Dubai, United Arab Emirates</v>
+          </cell>
+          <cell r="D31" t="str">
+            <v>SAI INTERNATIONAL TRADING COMPANY</v>
+          </cell>
+          <cell r="E31" t="str">
+            <v>Kerala, India</v>
+          </cell>
+          <cell r="F31" t="str">
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
+          </cell>
+          <cell r="G31" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="H31" t="str">
+            <v>VISION TRADING INTERNATIONAL FZE</v>
+          </cell>
+          <cell r="I31" t="str">
+            <v>Dubai, U.A.E</v>
+          </cell>
+          <cell r="J31" t="str">
+            <v xml:space="preserve"> India</v>
+          </cell>
+          <cell r="K31" t="str">
+            <v>Kerala, India</v>
+          </cell>
+          <cell r="L31" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="M31">
+            <v>117503</v>
+          </cell>
+          <cell r="N31" t="str">
+            <v>One Hundred Seventeen Thousand Five Hundred Three U.S.Dollars Only</v>
+          </cell>
+          <cell r="O31" t="str">
+            <v>Q235 Rectangular Steel Tube</v>
+          </cell>
+          <cell r="P31">
+            <v>180</v>
+          </cell>
+          <cell r="Q31" t="str">
+            <v>TONS</v>
+          </cell>
+          <cell r="R31">
+            <v>652.79</v>
+          </cell>
+          <cell r="S31">
+            <v>117503</v>
+          </cell>
+          <cell r="AN31" t="str">
+            <v xml:space="preserve">17.IBS </v>
+          </cell>
+          <cell r="AO31" t="str">
+            <v>USD</v>
+          </cell>
+          <cell r="AP31">
+            <v>43493</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32" t="str">
+            <v>VT-130</v>
+          </cell>
+          <cell r="B32" t="str">
+            <v>IBS INTERNATIONAL GENERAL TRADING LLC</v>
+          </cell>
+          <cell r="C32" t="str">
+            <v>Dubai, United Arab Emirates</v>
+          </cell>
+          <cell r="D32" t="str">
+            <v>SAI INTERNATIONAL TRADING COMPANY</v>
+          </cell>
+          <cell r="E32" t="str">
+            <v>Kerala, India</v>
+          </cell>
+          <cell r="F32" t="str">
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
+          </cell>
+          <cell r="G32" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="H32" t="str">
+            <v>VISION TRADING INTERNATIONAL FZE</v>
+          </cell>
+          <cell r="I32" t="str">
+            <v>Dubai, U.A.E</v>
+          </cell>
+          <cell r="J32" t="str">
+            <v xml:space="preserve"> India</v>
+          </cell>
+          <cell r="K32" t="str">
+            <v>Kerala, India</v>
+          </cell>
+          <cell r="L32" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="M32">
+            <v>300000</v>
+          </cell>
+          <cell r="N32" t="str">
+            <v>Three Hundred Thousand U.S.Dollars Only</v>
+          </cell>
+          <cell r="O32" t="str">
+            <v>Mexico Rn100 Hydraulic Press Rolling Machine</v>
+          </cell>
+          <cell r="P32">
+            <v>3</v>
+          </cell>
+          <cell r="Q32" t="str">
+            <v>SETS</v>
+          </cell>
+          <cell r="R32">
+            <v>8000</v>
+          </cell>
+          <cell r="S32">
+            <v>24000</v>
+          </cell>
+          <cell r="T32" t="str">
+            <v>Acoustic Decorative Ceiling Tiles</v>
+          </cell>
+          <cell r="U32">
+            <v>5520</v>
+          </cell>
+          <cell r="V32" t="str">
+            <v>SQUARE METERS</v>
+          </cell>
+          <cell r="W32">
+            <v>50</v>
+          </cell>
+          <cell r="X32">
+            <v>276000</v>
+          </cell>
+          <cell r="AN32" t="str">
+            <v xml:space="preserve">17.IBS </v>
+          </cell>
+          <cell r="AO32" t="str">
+            <v>USD</v>
+          </cell>
+          <cell r="AP32">
+            <v>43478</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33" t="str">
+            <v>VT-131</v>
+          </cell>
+          <cell r="B33" t="str">
+            <v>IBS INTERNATIONAL GENERAL TRADING LLC</v>
+          </cell>
+          <cell r="C33" t="str">
+            <v>Dubai, United Arab Emirates</v>
+          </cell>
+          <cell r="D33" t="str">
+            <v>SAI INTERNATIONAL TRADING COMPANY</v>
+          </cell>
+          <cell r="E33" t="str">
+            <v>Kerala, India</v>
+          </cell>
+          <cell r="F33" t="str">
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
+          </cell>
+          <cell r="G33" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="H33" t="str">
+            <v>VISION TRADING INTERNATIONAL FZE</v>
+          </cell>
+          <cell r="I33" t="str">
+            <v>Dubai, U.A.E</v>
+          </cell>
+          <cell r="J33" t="str">
+            <v xml:space="preserve"> India</v>
+          </cell>
+          <cell r="K33" t="str">
+            <v>Kerala, India</v>
+          </cell>
+          <cell r="L33" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="M33">
+            <v>300000</v>
+          </cell>
+          <cell r="N33" t="str">
+            <v>Three Hundred Thousand U.S.Dollars Only</v>
+          </cell>
+          <cell r="O33" t="str">
+            <v>Thermal Insulation Building Construction Decorative Materials</v>
+          </cell>
+          <cell r="P33">
+            <v>2045</v>
+          </cell>
+          <cell r="Q33" t="str">
+            <v>MS</v>
+          </cell>
+          <cell r="R33">
+            <v>100</v>
+          </cell>
+          <cell r="S33">
+            <v>204500</v>
+          </cell>
+          <cell r="T33" t="str">
+            <v>Building Construction Material Steel Frabrication Structure</v>
+          </cell>
+          <cell r="U33">
+            <v>1061</v>
+          </cell>
+          <cell r="V33" t="str">
+            <v>SETS</v>
+          </cell>
+          <cell r="W33">
+            <v>90.01</v>
+          </cell>
+          <cell r="X33">
+            <v>95500</v>
+          </cell>
+          <cell r="AN33" t="str">
+            <v xml:space="preserve">17.IBS </v>
+          </cell>
+          <cell r="AO33" t="str">
+            <v>USD</v>
+          </cell>
+          <cell r="AP33">
+            <v>43482</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34" t="str">
+            <v>VT-125-CL</v>
+          </cell>
+          <cell r="B34" t="str">
+            <v>AXICOR DWC LLC</v>
+          </cell>
+          <cell r="C34" t="str">
+            <v>Dubai, Uae</v>
+          </cell>
+          <cell r="D34" t="str">
+            <v>ARAYMOND FLUID CONNECTION</v>
+          </cell>
+          <cell r="E34" t="str">
+            <v>Grenoble, France</v>
+          </cell>
+          <cell r="F34" t="str">
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
+          </cell>
+          <cell r="G34" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="H34" t="str">
+            <v>VISION TRADING INTERNATIONAL FZE</v>
+          </cell>
+          <cell r="I34" t="str">
+            <v>Dubai, U.A.E</v>
+          </cell>
+          <cell r="J34" t="str">
+            <v xml:space="preserve"> France</v>
+          </cell>
+          <cell r="K34" t="str">
+            <v>Grenoble, France</v>
+          </cell>
+          <cell r="L34" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="M34">
+            <v>139932</v>
+          </cell>
+          <cell r="N34" t="str">
+            <v>One Hundred Thirty Nine Thousand Nine Hundred Thirty Two U.S.Dollars Only</v>
+          </cell>
+          <cell r="O34" t="str">
+            <v>Galvanized Round Steel Pipe</v>
+          </cell>
+          <cell r="P34">
+            <v>205</v>
+          </cell>
+          <cell r="Q34" t="str">
+            <v>TONS</v>
+          </cell>
+          <cell r="R34">
+            <v>682.6</v>
+          </cell>
+          <cell r="S34">
+            <v>139932</v>
+          </cell>
+          <cell r="AO34" t="str">
+            <v>USD</v>
+          </cell>
+          <cell r="AP34">
+            <v>43478</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35" t="str">
+            <v>VT-167</v>
+          </cell>
+          <cell r="D35" t="str">
+            <v>NANJING SISIB SILICONES CO LT</v>
+          </cell>
+          <cell r="E35" t="str">
+            <v>Nanjing, China</v>
+          </cell>
+          <cell r="F35" t="str">
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
+          </cell>
+          <cell r="G35" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="H35" t="str">
+            <v>VISION TRADING INTERNATIONAL FZE</v>
+          </cell>
+          <cell r="I35" t="str">
+            <v>Dubai, U.A.E</v>
+          </cell>
+          <cell r="J35" t="str">
+            <v xml:space="preserve"> China</v>
+          </cell>
+          <cell r="K35" t="str">
+            <v>Nanjing, China</v>
+          </cell>
+          <cell r="L35" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="M35">
+            <v>18640</v>
+          </cell>
+          <cell r="N35" t="str">
+            <v>Eighteen Thousand Six Hundred Forty Euros Only</v>
+          </cell>
+          <cell r="O35" t="str">
+            <v>Big Size Ultra Thin Marble Look Porcelain Ceramic Floor Tile</v>
+          </cell>
+          <cell r="P35">
+            <v>266</v>
+          </cell>
+          <cell r="Q35" t="str">
+            <v>SQUARE METERS</v>
+          </cell>
+          <cell r="R35">
+            <v>70.08</v>
+          </cell>
+          <cell r="S35">
+            <v>18640</v>
+          </cell>
+          <cell r="AO35" t="str">
+            <v>EURO</v>
+          </cell>
+          <cell r="AP35">
+            <v>43448</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36" t="str">
+            <v>VT-186</v>
+          </cell>
+          <cell r="D36" t="str">
+            <v>ACAR KIMYA ANONIM SIRKETI</v>
+          </cell>
+          <cell r="E36" t="str">
+            <v>Istanbul, Turkey</v>
+          </cell>
+          <cell r="F36" t="str">
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
+          </cell>
+          <cell r="G36" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="H36" t="str">
+            <v>VISION TRADING INTERNATIONAL FZE</v>
+          </cell>
+          <cell r="I36" t="str">
+            <v>Dubai, U.A.E</v>
+          </cell>
+          <cell r="J36" t="str">
+            <v xml:space="preserve"> Turkey</v>
+          </cell>
+          <cell r="K36" t="str">
+            <v>Istanbul, Turkey</v>
+          </cell>
+          <cell r="L36" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="M36">
+            <v>270536</v>
+          </cell>
+          <cell r="N36" t="str">
+            <v>Two Hundred Seventy Thousand Five Hundred Thirty Six Euros Only</v>
+          </cell>
+          <cell r="O36" t="str">
+            <v>Dx51d Bright Hot DIP Galvanized Steel Coil /Gi</v>
+          </cell>
+          <cell r="P36">
+            <v>29</v>
+          </cell>
+          <cell r="Q36" t="str">
+            <v>TONS</v>
+          </cell>
+          <cell r="R36">
+            <v>786.52</v>
+          </cell>
+          <cell r="S36">
+            <v>22809.08</v>
+          </cell>
+          <cell r="T36" t="str">
+            <v>Single Story Warehouse Steel Structure</v>
+          </cell>
+          <cell r="U36">
+            <v>3096</v>
+          </cell>
+          <cell r="V36" t="str">
+            <v>SQUARE METERS</v>
+          </cell>
+          <cell r="W36">
+            <v>80.02</v>
+          </cell>
+          <cell r="X36">
+            <v>247726.92</v>
+          </cell>
+          <cell r="AO36" t="str">
+            <v>EURO</v>
+          </cell>
+          <cell r="AP36">
+            <v>43448</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37" t="str">
+            <v>VT-168</v>
+          </cell>
+          <cell r="B37" t="str">
+            <v>IBS INTERNATIONAL GENERAL TRADING LLC</v>
+          </cell>
+          <cell r="C37" t="str">
+            <v>Dubai, United Arab Emirates</v>
+          </cell>
+          <cell r="D37" t="str">
+            <v>SAI INTERNATIONAL TRADING COMPANY</v>
+          </cell>
+          <cell r="E37" t="str">
+            <v>Kerala, India</v>
+          </cell>
+          <cell r="F37" t="str">
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
+          </cell>
+          <cell r="G37" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="H37" t="str">
+            <v>VISION TRADING INTERNATIONAL FZE</v>
+          </cell>
+          <cell r="I37" t="str">
+            <v>Dubai, U.A.E</v>
+          </cell>
+          <cell r="J37" t="str">
+            <v xml:space="preserve"> India</v>
+          </cell>
+          <cell r="K37" t="str">
+            <v>Kerala, India</v>
+          </cell>
+          <cell r="L37" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="M37">
+            <v>29588</v>
+          </cell>
+          <cell r="N37" t="str">
+            <v>Twenty Nine Thousand Five Hundred Eighty Eight Euros Only</v>
+          </cell>
+          <cell r="O37" t="str">
+            <v>CNC Machining Parts Aluminum Profile Extrusion</v>
+          </cell>
+          <cell r="P37">
+            <v>295</v>
+          </cell>
+          <cell r="Q37" t="str">
+            <v>PCS</v>
+          </cell>
+          <cell r="R37">
+            <v>100.3</v>
+          </cell>
+          <cell r="S37">
+            <v>29588</v>
+          </cell>
+          <cell r="AN37" t="str">
+            <v xml:space="preserve">17.IBS </v>
+          </cell>
+          <cell r="AO37" t="str">
+            <v>EURO</v>
+          </cell>
+          <cell r="AP37">
+            <v>43463</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38" t="str">
+            <v>VT-175</v>
+          </cell>
+          <cell r="B38" t="str">
+            <v>IBS INTERNATIONAL GENERAL TRADING LLC</v>
+          </cell>
+          <cell r="C38" t="str">
+            <v>Dubai, United Arab Emirates</v>
+          </cell>
+          <cell r="D38" t="str">
+            <v>SAI INTERNATIONAL TRADING COMPANY</v>
+          </cell>
+          <cell r="E38" t="str">
+            <v>Kerala, India</v>
+          </cell>
+          <cell r="F38" t="str">
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
+          </cell>
+          <cell r="G38" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="H38" t="str">
+            <v>VISION TRADING INTERNATIONAL FZE</v>
+          </cell>
+          <cell r="I38" t="str">
+            <v>Dubai, U.A.E</v>
+          </cell>
+          <cell r="J38" t="str">
+            <v xml:space="preserve"> India</v>
+          </cell>
+          <cell r="K38" t="str">
+            <v>Kerala, India</v>
+          </cell>
+          <cell r="L38" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="M38">
+            <v>96000</v>
+          </cell>
+          <cell r="N38" t="str">
+            <v>Ninety Six Thousand Euros Only</v>
+          </cell>
+          <cell r="O38" t="str">
+            <v>Hollow Stone Pillar Granite Roman Column</v>
+          </cell>
+          <cell r="P38">
+            <v>128</v>
+          </cell>
+          <cell r="Q38" t="str">
+            <v>PCS</v>
+          </cell>
+          <cell r="R38">
+            <v>750</v>
+          </cell>
+          <cell r="S38">
+            <v>96000</v>
+          </cell>
+          <cell r="AN38" t="str">
+            <v xml:space="preserve">17.IBS </v>
+          </cell>
+          <cell r="AO38" t="str">
+            <v>EURO</v>
+          </cell>
+          <cell r="AP38">
+            <v>43443</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39" t="str">
+            <v>VT-183</v>
+          </cell>
+          <cell r="B39" t="str">
+            <v>IBS INTERNATIONAL GENERAL TRADING LLC</v>
+          </cell>
+          <cell r="C39" t="str">
+            <v>Dubai, United Arab Emirates</v>
+          </cell>
+          <cell r="D39" t="str">
+            <v>SAI INTERNATIONAL TRADING COMPANY</v>
+          </cell>
+          <cell r="E39" t="str">
+            <v>Kerala, India</v>
+          </cell>
+          <cell r="F39" t="str">
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
+          </cell>
+          <cell r="G39" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="H39" t="str">
+            <v>VISION TRADING INTERNATIONAL FZE</v>
+          </cell>
+          <cell r="I39" t="str">
+            <v>Dubai, U.A.E</v>
+          </cell>
+          <cell r="J39" t="str">
+            <v xml:space="preserve"> India</v>
+          </cell>
+          <cell r="K39" t="str">
+            <v>Kerala, India</v>
+          </cell>
+          <cell r="L39" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="M39">
+            <v>179279</v>
+          </cell>
+          <cell r="N39" t="str">
+            <v>One Hundred Seventy Nine Thousand Two Hundred Seventy Nine Euros Only</v>
+          </cell>
+          <cell r="O39" t="str">
+            <v>3003h24 Flat Aluminum Sheet MetalÂ BuildingÂ Construction Material</v>
+          </cell>
+          <cell r="P39">
+            <v>2636</v>
+          </cell>
+          <cell r="Q39" t="str">
+            <v>SQUARE METERS</v>
+          </cell>
+          <cell r="R39">
+            <v>68.010000000000005</v>
+          </cell>
+          <cell r="S39">
+            <v>179279</v>
+          </cell>
+          <cell r="AN39" t="str">
+            <v xml:space="preserve">17.IBS </v>
+          </cell>
+          <cell r="AO39" t="str">
+            <v>EURO</v>
+          </cell>
+          <cell r="AP39">
+            <v>43458</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40" t="str">
+            <v>VT-184</v>
+          </cell>
+          <cell r="B40" t="str">
+            <v>IBS INTERNATIONAL GENERAL TRADING LLC</v>
+          </cell>
+          <cell r="C40" t="str">
+            <v>Dubai, United Arab Emirates</v>
+          </cell>
+          <cell r="D40" t="str">
+            <v>SAI INTERNATIONAL TRADING COMPANY</v>
+          </cell>
+          <cell r="E40" t="str">
+            <v>Kerala, India</v>
+          </cell>
+          <cell r="F40" t="str">
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
+          </cell>
+          <cell r="G40" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="H40" t="str">
+            <v>VISION TRADING INTERNATIONAL FZE</v>
+          </cell>
+          <cell r="I40" t="str">
+            <v>Dubai, U.A.E</v>
+          </cell>
+          <cell r="J40" t="str">
+            <v xml:space="preserve"> India</v>
+          </cell>
+          <cell r="K40" t="str">
+            <v>Kerala, India</v>
+          </cell>
+          <cell r="L40" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="M40">
+            <v>182016.6</v>
+          </cell>
+          <cell r="N40" t="str">
+            <v>One Hundred Eighty Two Thousand Sixteen 60.0/100 Euros Only</v>
+          </cell>
+          <cell r="O40" t="str">
+            <v>Decorative Building Material Stone Aluminum Honeycomb Panel</v>
+          </cell>
+          <cell r="P40">
+            <v>2022</v>
+          </cell>
+          <cell r="Q40" t="str">
+            <v>SQUARE METERS</v>
+          </cell>
+          <cell r="R40">
+            <v>90.02</v>
+          </cell>
+          <cell r="S40">
+            <v>182016.6</v>
+          </cell>
+          <cell r="AN40" t="str">
+            <v xml:space="preserve">17.IBS </v>
+          </cell>
+          <cell r="AO40" t="str">
+            <v>EURO</v>
+          </cell>
+          <cell r="AP40">
+            <v>43451</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41" t="str">
+            <v>VT-187</v>
+          </cell>
+          <cell r="B41" t="str">
+            <v>IBS INTERNATIONAL GENERAL TRADING LLC</v>
+          </cell>
+          <cell r="C41" t="str">
+            <v>Dubai, United Arab Emirates</v>
+          </cell>
+          <cell r="D41" t="str">
+            <v>SAI INTERNATIONAL TRADING COMPANY</v>
+          </cell>
+          <cell r="E41" t="str">
+            <v>Kerala, India</v>
+          </cell>
+          <cell r="F41" t="str">
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
+          </cell>
+          <cell r="G41" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="H41" t="str">
+            <v>VISION TRADING INTERNATIONAL FZE</v>
+          </cell>
+          <cell r="I41" t="str">
+            <v>Dubai, U.A.E</v>
+          </cell>
+          <cell r="J41" t="str">
+            <v xml:space="preserve"> India</v>
+          </cell>
+          <cell r="K41" t="str">
+            <v>Kerala, India</v>
+          </cell>
+          <cell r="L41" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="M41">
+            <v>302611.44</v>
+          </cell>
+          <cell r="N41" t="str">
+            <v>Three Hundred Two Thousand Six Hundred Eleven 44.0/100 Euros Only</v>
+          </cell>
+          <cell r="O41" t="str">
+            <v>Hot Dipped Galvanized Steel (Hot rolled/Cold rolled) Coil</v>
+          </cell>
+          <cell r="P41">
+            <v>300</v>
+          </cell>
+          <cell r="Q41" t="str">
+            <v>TONS</v>
+          </cell>
+          <cell r="R41">
+            <v>505.62</v>
+          </cell>
+          <cell r="S41">
+            <v>151686</v>
+          </cell>
+          <cell r="T41" t="str">
+            <v>Exterior Safety Electric Motorized Thermal Insulated Security Overhead Sectional Garage Door</v>
+          </cell>
+          <cell r="U41">
+            <v>125</v>
+          </cell>
+          <cell r="V41" t="str">
+            <v>PCS</v>
+          </cell>
+          <cell r="W41">
+            <v>1207.4000000000001</v>
+          </cell>
+          <cell r="X41">
+            <v>150925.44</v>
+          </cell>
+          <cell r="AN41" t="str">
+            <v xml:space="preserve">17.IBS </v>
+          </cell>
+          <cell r="AO41" t="str">
+            <v>EURO</v>
+          </cell>
+          <cell r="AP41">
+            <v>43449</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42" t="str">
+            <v>VT-189</v>
+          </cell>
+          <cell r="B42" t="str">
+            <v>IBS INTERNATIONAL GENERAL TRADING LLC</v>
+          </cell>
+          <cell r="C42" t="str">
+            <v>Dubai, United Arab Emirates</v>
+          </cell>
+          <cell r="D42" t="str">
+            <v>SAI INTERNATIONAL TRADING COMPANY</v>
+          </cell>
+          <cell r="E42" t="str">
+            <v>Kerala, India</v>
+          </cell>
+          <cell r="F42" t="str">
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
+          </cell>
+          <cell r="G42" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="H42" t="str">
+            <v>VISION TRADING INTERNATIONAL FZE</v>
+          </cell>
+          <cell r="I42" t="str">
+            <v>Dubai, U.A.E</v>
+          </cell>
+          <cell r="J42" t="str">
+            <v xml:space="preserve"> India</v>
+          </cell>
+          <cell r="K42" t="str">
+            <v>Kerala, India</v>
+          </cell>
+          <cell r="L42" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="M42">
+            <v>470500</v>
+          </cell>
+          <cell r="N42" t="str">
+            <v>Four Hundred Seventy Thousand Five Hundred Euros Only</v>
+          </cell>
+          <cell r="O42" t="str">
+            <v>Heat Insulation Tube Building Material Pipe Glasswool</v>
+          </cell>
+          <cell r="P42">
+            <v>688</v>
+          </cell>
+          <cell r="Q42" t="str">
+            <v>SETS</v>
+          </cell>
+          <cell r="R42">
+            <v>337.08</v>
+          </cell>
+          <cell r="S42">
+            <v>231911.04000000001</v>
+          </cell>
+          <cell r="T42" t="str">
+            <v>Ideabond Building Material Pre-Painted Aluminium Strip</v>
+          </cell>
+          <cell r="U42">
+            <v>55</v>
+          </cell>
+          <cell r="V42" t="str">
+            <v>TONS</v>
+          </cell>
+          <cell r="W42">
+            <v>4337.9799999999996</v>
+          </cell>
+          <cell r="X42">
+            <v>238588.96</v>
+          </cell>
+          <cell r="AN42" t="str">
+            <v xml:space="preserve">17.IBS </v>
+          </cell>
+          <cell r="AO42" t="str">
+            <v>EURO</v>
+          </cell>
+          <cell r="AP42">
+            <v>43448</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43" t="str">
+            <v>VT-172</v>
+          </cell>
+          <cell r="D43" t="str">
+            <v>KAVALIERGLASS, INC.</v>
+          </cell>
+          <cell r="E43" t="str">
+            <v>Sazava, Czech Repulic</v>
+          </cell>
+          <cell r="F43" t="str">
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
+          </cell>
+          <cell r="G43" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="H43" t="str">
+            <v>VISION TRADING INTERNATIONAL FZE</v>
+          </cell>
+          <cell r="I43" t="str">
+            <v>Dubai, U.A.E</v>
+          </cell>
+          <cell r="J43" t="str">
+            <v xml:space="preserve"> Czech Repulic</v>
+          </cell>
+          <cell r="K43" t="str">
+            <v>Sazava, Czech Repulic</v>
+          </cell>
+          <cell r="L43" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="M43">
+            <v>58184</v>
+          </cell>
+          <cell r="N43" t="str">
+            <v>Fifty Eight Thousand One Hundred Eighty Four Euros Only</v>
+          </cell>
+          <cell r="O43" t="str">
+            <v>12mm Building Material Artificial Stone Acrylic Solid Surface Corian</v>
+          </cell>
+          <cell r="P43">
+            <v>484</v>
+          </cell>
+          <cell r="Q43" t="str">
+            <v>PCS</v>
+          </cell>
+          <cell r="R43">
+            <v>120.21</v>
+          </cell>
+          <cell r="S43">
+            <v>58184</v>
+          </cell>
+          <cell r="AO43" t="str">
+            <v>EURO</v>
+          </cell>
+          <cell r="AP43">
+            <v>43465</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44" t="str">
+            <v>VT-182</v>
+          </cell>
+          <cell r="D44" t="str">
+            <v>TURK HENKEL KIMYA SAN. VE TIC. A.S.</v>
+          </cell>
+          <cell r="E44" t="str">
+            <v>Istanbul, Turkey</v>
+          </cell>
+          <cell r="F44" t="str">
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
+          </cell>
+          <cell r="G44" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="H44" t="str">
+            <v>VISION TRADING INTERNATIONAL FZE</v>
+          </cell>
+          <cell r="I44" t="str">
+            <v>Dubai, U.A.E</v>
+          </cell>
+          <cell r="J44" t="str">
+            <v xml:space="preserve"> Turkey</v>
+          </cell>
+          <cell r="K44" t="str">
+            <v>Istanbul, Turkey</v>
+          </cell>
+          <cell r="L44" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="M44">
+            <v>177906.42</v>
+          </cell>
+          <cell r="N44" t="str">
+            <v>One Hundred Seventy Seven Thousand Nine Hundred Six 42.0/100 Euros Only</v>
+          </cell>
+          <cell r="O44" t="str">
+            <v>EcoÂ BuildingÂ MaterialÂ 10-25mm Aluminum Honeycomb Panel</v>
+          </cell>
+          <cell r="P44">
+            <v>3535</v>
+          </cell>
+          <cell r="Q44" t="str">
+            <v>SQUARE METERS</v>
+          </cell>
+          <cell r="R44">
+            <v>50.33</v>
+          </cell>
+          <cell r="S44">
+            <v>177906.42</v>
+          </cell>
+          <cell r="AO44" t="str">
+            <v>EURO</v>
+          </cell>
+          <cell r="AP44">
+            <v>43444</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45" t="str">
+            <v>VT-120</v>
+          </cell>
+          <cell r="B45" t="str">
+            <v>IBS INTERNATIONAL GENERAL TRADING LLC</v>
+          </cell>
+          <cell r="C45" t="str">
+            <v>Dubai, United Arab Emirates</v>
+          </cell>
+          <cell r="D45" t="str">
+            <v>SAI INTERNATIONAL TRADING COMPANY</v>
+          </cell>
+          <cell r="E45" t="str">
+            <v>Kerala, India</v>
+          </cell>
+          <cell r="F45" t="str">
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
+          </cell>
+          <cell r="G45" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="H45" t="str">
+            <v>VISION TRADING INTERNATIONAL FZE</v>
+          </cell>
+          <cell r="I45" t="str">
+            <v>Dubai, U.A.E</v>
+          </cell>
+          <cell r="J45" t="str">
+            <v xml:space="preserve"> India</v>
+          </cell>
+          <cell r="K45" t="str">
+            <v>Kerala, India</v>
+          </cell>
+          <cell r="L45" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="M45">
+            <v>16103.61</v>
+          </cell>
+          <cell r="N45" t="str">
+            <v>Sixteen Thousand One Hundred Three 61.0/100 U.S.Dollars Only</v>
+          </cell>
+          <cell r="O45" t="str">
+            <v>Thermal Insulation Building Construction Decorative Materials</v>
+          </cell>
+          <cell r="P45">
+            <v>161</v>
+          </cell>
+          <cell r="Q45" t="str">
+            <v>MS</v>
+          </cell>
+          <cell r="R45">
+            <v>100.02</v>
+          </cell>
+          <cell r="S45">
+            <v>16103.61</v>
+          </cell>
+          <cell r="AN45" t="str">
+            <v xml:space="preserve">17.IBS </v>
+          </cell>
+          <cell r="AO45" t="str">
+            <v>USD</v>
+          </cell>
+          <cell r="AP45">
+            <v>43449</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46" t="str">
+            <v>VT-124</v>
+          </cell>
+          <cell r="D46" t="str">
+            <v>ELITE CAPTAL ONE INVESTMENT LLC</v>
+          </cell>
+          <cell r="E46" t="str">
+            <v>California, United States</v>
+          </cell>
+          <cell r="F46" t="str">
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
+          </cell>
+          <cell r="G46" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="H46" t="str">
+            <v>VISION TRADING INTERNATIONAL FZE</v>
+          </cell>
+          <cell r="I46" t="str">
+            <v>Dubai, U.A.E</v>
+          </cell>
+          <cell r="J46" t="str">
+            <v xml:space="preserve"> United States</v>
+          </cell>
+          <cell r="K46" t="str">
+            <v>California, United States</v>
+          </cell>
+          <cell r="L46" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="M46">
+            <v>50000</v>
+          </cell>
+          <cell r="N46" t="str">
+            <v>Fifty Thousand U.S.Dollars Only</v>
+          </cell>
+          <cell r="O46" t="str">
+            <v>Steel Structure Warehouse/Workshop 005</v>
+          </cell>
+          <cell r="P46">
+            <v>333</v>
+          </cell>
+          <cell r="Q46" t="str">
+            <v>SQUARE METERS</v>
+          </cell>
+          <cell r="R46">
+            <v>150.15</v>
+          </cell>
+          <cell r="S46">
+            <v>50000</v>
+          </cell>
+          <cell r="AO46" t="str">
+            <v>USD</v>
+          </cell>
+          <cell r="AP46">
+            <v>43443</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47" t="str">
+            <v>VT-129</v>
+          </cell>
+          <cell r="B47" t="str">
+            <v>IBS INTERNATIONAL GENERAL TRADING LLC</v>
+          </cell>
+          <cell r="C47" t="str">
+            <v>Dubai, United Arab Emirates</v>
+          </cell>
+          <cell r="D47" t="str">
+            <v>SAI INTERNATIONAL TRADING COMPANY</v>
+          </cell>
+          <cell r="E47" t="str">
+            <v>Kerala, India</v>
+          </cell>
+          <cell r="F47" t="str">
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
+          </cell>
+          <cell r="G47" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="H47" t="str">
+            <v>VISION TRADING INTERNATIONAL FZE</v>
+          </cell>
+          <cell r="I47" t="str">
+            <v>Dubai, U.A.E</v>
+          </cell>
+          <cell r="J47" t="str">
+            <v xml:space="preserve"> India</v>
+          </cell>
+          <cell r="K47" t="str">
+            <v>Kerala, India</v>
+          </cell>
+          <cell r="L47" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="M47">
+            <v>210000</v>
+          </cell>
+          <cell r="N47" t="str">
+            <v>Two Hundred Ten Thousand U.S.Dollars Only</v>
+          </cell>
+          <cell r="O47" t="str">
+            <v>Aluminium Tilt &amp; Turn Window</v>
+          </cell>
+          <cell r="P47">
+            <v>2100</v>
+          </cell>
+          <cell r="Q47" t="str">
+            <v>SQUARE METERS</v>
+          </cell>
+          <cell r="R47">
+            <v>100</v>
+          </cell>
+          <cell r="S47">
+            <v>210000</v>
+          </cell>
+          <cell r="AN47" t="str">
+            <v xml:space="preserve">17.IBS </v>
+          </cell>
+          <cell r="AO47" t="str">
+            <v>USD</v>
+          </cell>
+          <cell r="AP47">
+            <v>43463</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48" t="str">
+            <v>VT-174</v>
+          </cell>
+          <cell r="D48" t="str">
+            <v>EUROFLUID HYDRAULIK GMBH</v>
+          </cell>
+          <cell r="E48" t="str">
+            <v>Asparn, Austria</v>
+          </cell>
+          <cell r="F48" t="str">
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
+          </cell>
+          <cell r="G48" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="H48" t="str">
+            <v>VISION TRADING INTERNATIONAL FZE</v>
+          </cell>
+          <cell r="I48" t="str">
+            <v>Dubai, U.A.E</v>
+          </cell>
+          <cell r="J48" t="str">
+            <v xml:space="preserve"> Austria</v>
+          </cell>
+          <cell r="K48" t="str">
+            <v>Asparn, Austria</v>
+          </cell>
+          <cell r="L48" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="M48">
+            <v>88000</v>
+          </cell>
+          <cell r="N48" t="str">
+            <v>Eighty Eight Thousand Euros Only</v>
+          </cell>
+          <cell r="O48" t="str">
+            <v>Q195 Q235 Q345 Carbon Welded Steel Pipe</v>
+          </cell>
+          <cell r="P48">
+            <v>176</v>
+          </cell>
+          <cell r="Q48" t="str">
+            <v>TONS</v>
+          </cell>
+          <cell r="R48">
+            <v>500</v>
+          </cell>
+          <cell r="S48">
+            <v>88000</v>
+          </cell>
+          <cell r="AO48" t="str">
+            <v>EURO</v>
+          </cell>
+          <cell r="AP48">
+            <v>43498</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49" t="str">
+            <v>VT-178</v>
+          </cell>
+          <cell r="B49" t="str">
+            <v>IBS INTERNATIONAL GENERAL TRADING LLC</v>
+          </cell>
+          <cell r="C49" t="str">
+            <v>Dubai, United Arab Emirates</v>
+          </cell>
+          <cell r="D49" t="str">
+            <v>SAI INTERNATIONAL TRADING COMPANY</v>
+          </cell>
+          <cell r="E49" t="str">
+            <v>Kerala, India</v>
+          </cell>
+          <cell r="F49" t="str">
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
+          </cell>
+          <cell r="G49" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="H49" t="str">
+            <v>VISION TRADING INTERNATIONAL FZE</v>
+          </cell>
+          <cell r="I49" t="str">
+            <v>Dubai, U.A.E</v>
+          </cell>
+          <cell r="J49" t="str">
+            <v xml:space="preserve"> India</v>
+          </cell>
+          <cell r="K49" t="str">
+            <v>Kerala, India</v>
+          </cell>
+          <cell r="L49" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="M49">
+            <v>116350</v>
+          </cell>
+          <cell r="N49" t="str">
+            <v>One Hundred Sixteen Thousand Three Hundred Fifty Euros Only</v>
+          </cell>
+          <cell r="O49" t="str">
+            <v>Fireproof Soundproof Spraying Cottonthermal Insulation</v>
+          </cell>
+          <cell r="P49">
+            <v>258</v>
+          </cell>
+          <cell r="Q49" t="str">
+            <v>TONS</v>
+          </cell>
+          <cell r="R49">
+            <v>450.97</v>
+          </cell>
+          <cell r="S49">
+            <v>116350</v>
+          </cell>
+          <cell r="AN49" t="str">
+            <v xml:space="preserve">17.IBS </v>
+          </cell>
+          <cell r="AO49" t="str">
+            <v>EURO</v>
+          </cell>
+          <cell r="AP49">
+            <v>43500</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50" t="str">
+            <v>VT-180</v>
+          </cell>
+          <cell r="B50" t="str">
+            <v>IBS INTERNATIONAL GENERAL TRADING LLC</v>
+          </cell>
+          <cell r="C50" t="str">
+            <v>Dubai, United Arab Emirates</v>
+          </cell>
+          <cell r="D50" t="str">
+            <v>SAI INTERNATIONAL TRADING COMPANY</v>
+          </cell>
+          <cell r="E50" t="str">
+            <v>Kerala, India</v>
+          </cell>
+          <cell r="F50" t="str">
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
+          </cell>
+          <cell r="G50" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="H50" t="str">
+            <v>VISION TRADING INTERNATIONAL FZE</v>
+          </cell>
+          <cell r="I50" t="str">
+            <v>Dubai, U.A.E</v>
+          </cell>
+          <cell r="J50" t="str">
+            <v xml:space="preserve"> India</v>
+          </cell>
+          <cell r="K50" t="str">
+            <v>Kerala, India</v>
+          </cell>
+          <cell r="L50" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="M50">
+            <v>166056.6</v>
+          </cell>
+          <cell r="N50" t="str">
+            <v>One Hundred Sixty Six Thousand Fifty Six 60.0/100 Euros Only</v>
+          </cell>
+          <cell r="O50" t="str">
+            <v>Pre Painted Galvanized Corrugated Steel Sheet</v>
+          </cell>
+          <cell r="P50">
+            <v>88</v>
+          </cell>
+          <cell r="Q50" t="str">
+            <v>TONS</v>
+          </cell>
+          <cell r="R50">
+            <v>1123.5999999999999</v>
+          </cell>
+          <cell r="S50">
+            <v>98876.800000000003</v>
+          </cell>
+          <cell r="T50" t="str">
+            <v>Building Glass Aluminium Curtain Wall Material</v>
+          </cell>
+          <cell r="U50">
+            <v>23</v>
+          </cell>
+          <cell r="V50" t="str">
+            <v>TONS</v>
+          </cell>
+          <cell r="W50">
+            <v>2920.86</v>
+          </cell>
+          <cell r="X50">
+            <v>67179.8</v>
+          </cell>
+          <cell r="AN50" t="str">
+            <v xml:space="preserve">17.IBS </v>
+          </cell>
+          <cell r="AO50" t="str">
+            <v>EURO</v>
+          </cell>
+          <cell r="AP50">
+            <v>43516</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51" t="str">
+            <v>VT-181</v>
+          </cell>
+          <cell r="B51" t="str">
+            <v>IBS INTERNATIONAL GENERAL TRADING LLC</v>
+          </cell>
+          <cell r="C51" t="str">
+            <v>Dubai, United Arab Emirates</v>
+          </cell>
+          <cell r="D51" t="str">
+            <v>SAI INTERNATIONAL TRADING COMPANY</v>
+          </cell>
+          <cell r="E51" t="str">
+            <v>Kerala, India</v>
+          </cell>
+          <cell r="F51" t="str">
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
+          </cell>
+          <cell r="G51" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="H51" t="str">
+            <v>VISION TRADING INTERNATIONAL FZE</v>
+          </cell>
+          <cell r="I51" t="str">
+            <v>Dubai, U.A.E</v>
+          </cell>
+          <cell r="J51" t="str">
+            <v xml:space="preserve"> India</v>
+          </cell>
+          <cell r="K51" t="str">
+            <v>Kerala, India</v>
+          </cell>
+          <cell r="L51" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="M51">
+            <v>166950</v>
+          </cell>
+          <cell r="N51" t="str">
+            <v>One Hundred Sixty Six Thousand Nine Hundred Fifty Euros Only</v>
+          </cell>
+          <cell r="O51" t="str">
+            <v>Q235 Rectangular Steel Tube</v>
+          </cell>
+          <cell r="P51">
+            <v>107</v>
+          </cell>
+          <cell r="Q51" t="str">
+            <v>TONS</v>
+          </cell>
+          <cell r="R51">
+            <v>730.34</v>
+          </cell>
+          <cell r="S51">
+            <v>78146.38</v>
+          </cell>
+          <cell r="T51" t="str">
+            <v>Sgch Colors Coated Steel RoofingÂ Material</v>
+          </cell>
+          <cell r="U51">
+            <v>118</v>
+          </cell>
+          <cell r="V51" t="str">
+            <v>TONS</v>
+          </cell>
+          <cell r="W51">
+            <v>752.57</v>
+          </cell>
+          <cell r="X51">
+            <v>88803.62</v>
+          </cell>
+          <cell r="AN51" t="str">
+            <v xml:space="preserve">17.IBS </v>
+          </cell>
+          <cell r="AO51" t="str">
+            <v>EURO</v>
+          </cell>
+          <cell r="AP51">
+            <v>43502</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52" t="str">
+            <v>VT-192</v>
+          </cell>
+          <cell r="B52" t="str">
+            <v>IBS INTERNATIONAL GENERAL TRADING LLC</v>
+          </cell>
+          <cell r="C52" t="str">
+            <v>Dubai, United Arab Emirates</v>
+          </cell>
+          <cell r="D52" t="str">
+            <v>SAI INTERNATIONAL TRADING COMPANY</v>
+          </cell>
+          <cell r="E52" t="str">
+            <v>Kerala, India</v>
+          </cell>
+          <cell r="F52" t="str">
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
+          </cell>
+          <cell r="G52" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="H52" t="str">
+            <v>VISION TRADING INTERNATIONAL FZE</v>
+          </cell>
+          <cell r="I52" t="str">
+            <v>Dubai, U.A.E</v>
+          </cell>
+          <cell r="J52" t="str">
+            <v xml:space="preserve"> India</v>
+          </cell>
+          <cell r="K52" t="str">
+            <v>Kerala, India</v>
+          </cell>
+          <cell r="L52" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="M52">
+            <v>916150</v>
+          </cell>
+          <cell r="N52" t="str">
+            <v>Nine Hundred Sixteen Thousand One Hundred Fifty Euros Only</v>
+          </cell>
+          <cell r="O52" t="str">
+            <v>T Lintel  Hot Dipped Galvanize  Z500G/M2</v>
+          </cell>
+          <cell r="P52">
+            <v>402</v>
+          </cell>
+          <cell r="Q52" t="str">
+            <v>TONS</v>
+          </cell>
+          <cell r="R52">
+            <v>1123.5999999999999</v>
+          </cell>
+          <cell r="S52">
+            <v>451687.2</v>
+          </cell>
+          <cell r="T52" t="str">
+            <v>PPGI Steel Coil/Color Coated Galvanized Steel Coil</v>
+          </cell>
+          <cell r="U52">
+            <v>774</v>
+          </cell>
+          <cell r="V52" t="str">
+            <v>TONS</v>
+          </cell>
+          <cell r="W52">
+            <v>600.08000000000004</v>
+          </cell>
+          <cell r="X52">
+            <v>464462.8</v>
+          </cell>
+          <cell r="AN52" t="str">
+            <v xml:space="preserve">17.IBS </v>
+          </cell>
+          <cell r="AO52" t="str">
+            <v>EURO</v>
+          </cell>
+          <cell r="AP52">
+            <v>43514</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53" t="str">
+            <v>VT-117</v>
+          </cell>
+          <cell r="B53" t="str">
+            <v>IBS INTERNATIONAL GENERAL TRADING LLC</v>
+          </cell>
+          <cell r="C53" t="str">
+            <v>Dubai, United Arab Emirates</v>
+          </cell>
+          <cell r="D53" t="str">
+            <v>SAI INTERNATIONAL TRADING COMPANY</v>
+          </cell>
+          <cell r="E53" t="str">
+            <v>Kerala, India</v>
+          </cell>
+          <cell r="F53" t="str">
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
+          </cell>
+          <cell r="G53" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="H53" t="str">
+            <v>VISION TRADING INTERNATIONAL FZE</v>
+          </cell>
+          <cell r="I53" t="str">
+            <v>Dubai, U.A.E</v>
+          </cell>
+          <cell r="J53" t="str">
+            <v xml:space="preserve"> India</v>
+          </cell>
+          <cell r="K53" t="str">
+            <v>Kerala, India</v>
+          </cell>
+          <cell r="L53" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="M53">
+            <v>6845.99</v>
+          </cell>
+          <cell r="N53" t="str">
+            <v>Six Thousand Eight Hundred Forty Five 99.0/100 U.S.Dollars Only</v>
+          </cell>
+          <cell r="O53" t="str">
+            <v>Hot Prime Galvanized Steel Roofing Sheet</v>
+          </cell>
+          <cell r="P53">
+            <v>9</v>
+          </cell>
+          <cell r="Q53" t="str">
+            <v>TONS</v>
+          </cell>
+          <cell r="R53">
+            <v>760.67</v>
+          </cell>
+          <cell r="S53">
+            <v>6845.99</v>
+          </cell>
+          <cell r="AN53" t="str">
+            <v xml:space="preserve">17.IBS </v>
+          </cell>
+          <cell r="AO53" t="str">
+            <v>USD</v>
+          </cell>
+          <cell r="AP53">
+            <v>43500</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54" t="str">
+            <v>VT-119</v>
+          </cell>
+          <cell r="B54" t="str">
+            <v>AXICOR DWC LLC</v>
+          </cell>
+          <cell r="C54" t="str">
+            <v>Dubai, U.A.E</v>
+          </cell>
+          <cell r="D54" t="str">
+            <v>SUZHOU CLEANSTAR ELECTRIC APPLIANCE CO. LTD</v>
+          </cell>
+          <cell r="E54" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="F54" t="str">
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
+          </cell>
+          <cell r="G54" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="H54" t="str">
+            <v>VISION TRADING INTERNATIONAL FZE</v>
+          </cell>
+          <cell r="I54" t="str">
+            <v>Dubai, U.A.E</v>
+          </cell>
+          <cell r="J54" t="str">
+            <v xml:space="preserve"> China</v>
+          </cell>
+          <cell r="K54" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="L54" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="M54">
+            <v>13000</v>
+          </cell>
+          <cell r="N54" t="str">
+            <v>Thirteen Thousand U.S.Dollars Only</v>
+          </cell>
+          <cell r="O54" t="str">
+            <v>New Paneling Veins Series Artificial Quartz Slab Stone</v>
+          </cell>
+          <cell r="P54">
+            <v>276</v>
+          </cell>
+          <cell r="Q54" t="str">
+            <v>PCS</v>
+          </cell>
+          <cell r="R54">
+            <v>47.1</v>
+          </cell>
+          <cell r="S54">
+            <v>13000</v>
+          </cell>
+          <cell r="AO54" t="str">
+            <v>USD</v>
+          </cell>
+          <cell r="AP54">
+            <v>43499</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55" t="str">
+            <v>VT-153</v>
+          </cell>
+          <cell r="B55" t="str">
+            <v>IBS INTERNATIONAL GENERAL TRADING LLC</v>
+          </cell>
+          <cell r="C55" t="str">
+            <v>Dubai, United Arab Emirates</v>
+          </cell>
+          <cell r="D55" t="str">
+            <v>SAI INTERNATIONAL TRADING COMPANY</v>
+          </cell>
+          <cell r="E55" t="str">
+            <v>Kerala, India</v>
+          </cell>
+          <cell r="F55" t="str">
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
+          </cell>
+          <cell r="G55" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="H55" t="str">
+            <v>VISION TRADING INTERNATIONAL FZE</v>
+          </cell>
+          <cell r="I55" t="str">
+            <v>Dubai, U.A.E</v>
+          </cell>
+          <cell r="J55" t="str">
+            <v xml:space="preserve"> India</v>
+          </cell>
+          <cell r="K55" t="str">
+            <v>Kerala, India</v>
+          </cell>
+          <cell r="L55" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="M55">
+            <v>25100</v>
+          </cell>
+          <cell r="N55" t="str">
+            <v>Twenty Five Thousand One Hundred Euros Only</v>
+          </cell>
+          <cell r="O55" t="str">
+            <v>Powder Coating Aluminium Alloy Extrusion Profile</v>
+          </cell>
+          <cell r="P55">
+            <v>8</v>
+          </cell>
+          <cell r="Q55" t="str">
+            <v>TONS</v>
+          </cell>
+          <cell r="R55">
+            <v>3137.5</v>
+          </cell>
+          <cell r="S55">
+            <v>25100</v>
+          </cell>
+          <cell r="AN55" t="str">
+            <v xml:space="preserve">17.IBS </v>
+          </cell>
+          <cell r="AO55" t="str">
+            <v>EURO</v>
+          </cell>
+          <cell r="AP55">
+            <v>43402</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56" t="str">
+            <v>VT-107</v>
+          </cell>
+          <cell r="D56" t="str">
+            <v>THABA MANZI WILDLIFE SERVICES</v>
+          </cell>
+          <cell r="E56" t="str">
+            <v>South Africa</v>
+          </cell>
+          <cell r="F56" t="str">
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
+          </cell>
+          <cell r="G56" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="H56" t="str">
+            <v>VISION TRADING INTERNATIONAL FZE</v>
+          </cell>
+          <cell r="I56" t="str">
+            <v>Dubai, U.A.E</v>
+          </cell>
+          <cell r="J56" t="str">
+            <v>South Africa</v>
+          </cell>
+          <cell r="K56" t="str">
+            <v>South Africa</v>
+          </cell>
+          <cell r="L56" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="M56">
+            <v>13300</v>
+          </cell>
+          <cell r="N56" t="str">
+            <v>Thirteen Thousand Three Hundred U.S.Dollars Only</v>
+          </cell>
+          <cell r="O56" t="str">
+            <v>SGS Prefab Building Material Steel Construction</v>
+          </cell>
+          <cell r="P56">
+            <v>241</v>
+          </cell>
+          <cell r="Q56" t="str">
+            <v>SQUARE METERS</v>
+          </cell>
+          <cell r="R56">
+            <v>55.19</v>
+          </cell>
+          <cell r="S56">
+            <v>13300</v>
+          </cell>
+          <cell r="AO56" t="str">
+            <v>USD</v>
+          </cell>
+          <cell r="AP56">
+            <v>43394</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57" t="str">
+            <v>VT-108</v>
+          </cell>
+          <cell r="B57" t="str">
+            <v>IBS INTERNATIONAL GENERAL TRADING LLC</v>
+          </cell>
+          <cell r="C57" t="str">
+            <v>Dubai, United Arab Emirates</v>
+          </cell>
+          <cell r="D57" t="str">
+            <v>SAI INTERNATIONAL TRADING COMPANY</v>
+          </cell>
+          <cell r="E57" t="str">
+            <v>Kerala, India</v>
+          </cell>
+          <cell r="F57" t="str">
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
+          </cell>
+          <cell r="G57" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="H57" t="str">
+            <v>VISION TRADING INTERNATIONAL FZE</v>
+          </cell>
+          <cell r="I57" t="str">
+            <v>Dubai, U.A.E</v>
+          </cell>
+          <cell r="J57" t="str">
+            <v xml:space="preserve"> India</v>
+          </cell>
+          <cell r="K57" t="str">
+            <v>Kerala, India</v>
+          </cell>
+          <cell r="L57" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="M57">
+            <v>61000</v>
+          </cell>
+          <cell r="N57" t="str">
+            <v>Sixty One Thousand U.S.Dollars Only</v>
+          </cell>
+          <cell r="O57" t="str">
+            <v>PVC Coating Galvanized Stainless Steel Welded Wire Mesh</v>
+          </cell>
+          <cell r="P57">
+            <v>2103</v>
+          </cell>
+          <cell r="Q57" t="str">
+            <v>PCS</v>
+          </cell>
+          <cell r="R57">
+            <v>29.01</v>
+          </cell>
+          <cell r="S57">
+            <v>61000</v>
+          </cell>
+          <cell r="AN57" t="str">
+            <v xml:space="preserve">17.IBS </v>
+          </cell>
+          <cell r="AO57" t="str">
+            <v>USD</v>
+          </cell>
+          <cell r="AP57">
+            <v>43395</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58" t="str">
+            <v>VT-109</v>
+          </cell>
+          <cell r="B58" t="str">
+            <v>IBS INTERNATIONAL GENERAL TRADING LLC</v>
+          </cell>
+          <cell r="C58" t="str">
+            <v>Dubai, United Arab Emirates</v>
+          </cell>
+          <cell r="D58" t="str">
+            <v>SAI INTERNATIONAL TRADING COMPANY</v>
+          </cell>
+          <cell r="E58" t="str">
+            <v>Kerala, India</v>
+          </cell>
+          <cell r="F58" t="str">
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
+          </cell>
+          <cell r="G58" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="H58" t="str">
+            <v>VISION TRADING INTERNATIONAL FZE</v>
+          </cell>
+          <cell r="I58" t="str">
+            <v>Dubai, U.A.E</v>
+          </cell>
+          <cell r="J58" t="str">
+            <v xml:space="preserve"> India</v>
+          </cell>
+          <cell r="K58" t="str">
+            <v>Kerala, India</v>
+          </cell>
+          <cell r="L58" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="M58">
+            <v>140500</v>
+          </cell>
+          <cell r="N58" t="str">
+            <v>One Hundred Forty Thousand Five Hundred U.S.Dollars Only</v>
+          </cell>
+          <cell r="O58" t="str">
+            <v>Cost Price Color Coated Aluminum Coil</v>
+          </cell>
+          <cell r="P58">
+            <v>40</v>
+          </cell>
+          <cell r="Q58" t="str">
+            <v>TONS</v>
+          </cell>
+          <cell r="R58">
+            <v>3512.5</v>
+          </cell>
+          <cell r="S58">
+            <v>140500</v>
+          </cell>
+          <cell r="AN58" t="str">
+            <v xml:space="preserve">17.IBS </v>
+          </cell>
+          <cell r="AO58" t="str">
+            <v>USD</v>
+          </cell>
+          <cell r="AP58">
+            <v>43387</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59" t="str">
+            <v>VT-113-CL</v>
+          </cell>
+          <cell r="D59" t="str">
+            <v>TKPH PTY LTD TRADING AS OTR TYRES</v>
+          </cell>
+          <cell r="E59" t="str">
+            <v>Australia</v>
+          </cell>
+          <cell r="F59" t="str">
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
+          </cell>
+          <cell r="G59" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="H59" t="str">
+            <v>VISION TRADING INTERNATIONAL FZE</v>
+          </cell>
+          <cell r="I59" t="str">
+            <v>Dubai, U.A.E</v>
+          </cell>
+          <cell r="J59" t="str">
+            <v>Australia</v>
+          </cell>
+          <cell r="K59" t="str">
+            <v>Australia</v>
+          </cell>
+          <cell r="L59" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="M59">
+            <v>1046500</v>
+          </cell>
+          <cell r="N59" t="str">
+            <v>One Million Forty Six Thousand Five Hundred U.S.Dollars Only</v>
+          </cell>
+          <cell r="O59" t="str">
+            <v>Weld Steel H Beam</v>
+          </cell>
+          <cell r="P59">
+            <v>553</v>
+          </cell>
+          <cell r="Q59" t="str">
+            <v>TONS</v>
+          </cell>
+          <cell r="R59">
+            <v>850</v>
+          </cell>
+          <cell r="S59">
+            <v>470050</v>
+          </cell>
+          <cell r="T59" t="str">
+            <v>Powder Coating Aluminium Extrusion Profiles Sliding Window</v>
+          </cell>
+          <cell r="U59">
+            <v>192</v>
+          </cell>
+          <cell r="V59" t="str">
+            <v>TONS</v>
+          </cell>
+          <cell r="W59">
+            <v>3002.34</v>
+          </cell>
+          <cell r="X59">
+            <v>576450</v>
+          </cell>
+          <cell r="AO59" t="str">
+            <v>USD</v>
+          </cell>
+          <cell r="AP59">
+            <v>43395</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60" t="str">
+            <v>VT-112-CL</v>
+          </cell>
+          <cell r="D60" t="str">
+            <v>FILTRATION SOLUTION PTE LTD</v>
+          </cell>
+          <cell r="E60" t="str">
+            <v>Singapore, Singapore</v>
+          </cell>
+          <cell r="F60" t="str">
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
+          </cell>
+          <cell r="G60" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="H60" t="str">
+            <v>VISION TRADING INTERNATIONAL FZE</v>
+          </cell>
+          <cell r="I60" t="str">
+            <v>Dubai, U.A.E</v>
+          </cell>
+          <cell r="J60" t="str">
+            <v xml:space="preserve"> Singapore</v>
+          </cell>
+          <cell r="K60" t="str">
+            <v>Singapore, Singapore</v>
+          </cell>
+          <cell r="L60" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="M60">
+            <v>800000</v>
+          </cell>
+          <cell r="N60" t="str">
+            <v>Eight Hundred Thousand U.S.Dollars Only</v>
+          </cell>
+          <cell r="O60" t="str">
+            <v>Construction Building Passenger Hoist</v>
+          </cell>
+          <cell r="P60">
+            <v>4</v>
+          </cell>
+          <cell r="Q60" t="str">
+            <v>PCS</v>
+          </cell>
+          <cell r="R60">
+            <v>60000</v>
+          </cell>
+          <cell r="S60">
+            <v>240000</v>
+          </cell>
+          <cell r="T60" t="str">
+            <v>12mm Building Material Big Slab Marble Like Veining Pattern Acrylic Artificial Stone Solid Surface</v>
+          </cell>
+          <cell r="U60">
+            <v>350</v>
+          </cell>
+          <cell r="V60" t="str">
+            <v>PCS</v>
+          </cell>
+          <cell r="W60">
+            <v>129</v>
+          </cell>
+          <cell r="X60">
+            <v>45150</v>
+          </cell>
+          <cell r="Y60" t="str">
+            <v>150kg/M3 Insulation Board Rockwool with 80% Basalt</v>
+          </cell>
+          <cell r="Z60">
+            <v>556</v>
+          </cell>
+          <cell r="AA60" t="str">
+            <v>TONS</v>
+          </cell>
+          <cell r="AB60">
+            <v>925.99</v>
+          </cell>
+          <cell r="AC60">
+            <v>514850</v>
+          </cell>
+          <cell r="AO60" t="str">
+            <v>USD</v>
+          </cell>
+          <cell r="AP60">
+            <v>43392</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61" t="str">
+            <v>VT-224-CL</v>
+          </cell>
+          <cell r="D61" t="str">
+            <v>MWFG TRADING LTD</v>
+          </cell>
+          <cell r="E61" t="str">
+            <v>Vancouver, Canada</v>
+          </cell>
+          <cell r="F61" t="str">
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
+          </cell>
+          <cell r="G61" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="H61" t="str">
+            <v>VISION TRADING INTERNATIONAL FZE</v>
+          </cell>
+          <cell r="I61" t="str">
+            <v>Dubai, U.A.E</v>
+          </cell>
+          <cell r="J61" t="str">
+            <v xml:space="preserve"> Canada</v>
+          </cell>
+          <cell r="K61" t="str">
+            <v>Vancouver, Canada</v>
+          </cell>
+          <cell r="L61" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="M61">
+            <v>1258472</v>
+          </cell>
+          <cell r="N61" t="str">
+            <v>One Million Two Hundred Fifty Eight Thousand Four Hundred Seventy Two canadian Dollars Only</v>
+          </cell>
+          <cell r="O61" t="str">
+            <v>House Gate Interior Wooden Doors</v>
+          </cell>
+          <cell r="P61">
+            <v>464</v>
+          </cell>
+          <cell r="Q61" t="str">
+            <v>PCS</v>
+          </cell>
+          <cell r="R61">
+            <v>149.25</v>
+          </cell>
+          <cell r="S61">
+            <v>69252</v>
+          </cell>
+          <cell r="T61" t="str">
+            <v>Industrial PVC High Speed Shutter Door/Fast Shutter Door/High Speed PVC Roll up/Fold up Door</v>
+          </cell>
+          <cell r="U61">
+            <v>767</v>
+          </cell>
+          <cell r="V61" t="str">
+            <v>SETS</v>
+          </cell>
+          <cell r="W61">
+            <v>1550.48</v>
+          </cell>
+          <cell r="X61">
+            <v>1189220</v>
+          </cell>
+          <cell r="AO61" t="str">
+            <v>CAD</v>
+          </cell>
+          <cell r="AP61">
+            <v>43368</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62" t="str">
+            <v>VT-164</v>
+          </cell>
+          <cell r="B62" t="str">
+            <v>GOLDEN CORAL LLC</v>
+          </cell>
+          <cell r="C62" t="str">
+            <v>Sharjah, United Arab Emirates</v>
+          </cell>
+          <cell r="D62" t="str">
+            <v xml:space="preserve">ERUDITE GENERAL TRADING SND BHD </v>
+          </cell>
+          <cell r="E62" t="str">
+            <v xml:space="preserve">Jalan Jaya Negara, Brunei </v>
+          </cell>
+          <cell r="F62" t="str">
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
+          </cell>
+          <cell r="G62" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="H62" t="str">
+            <v>VISION TRADING INTERNATIONAL FZE</v>
+          </cell>
+          <cell r="I62" t="str">
+            <v>Dubai, U.A.E</v>
+          </cell>
+          <cell r="J62" t="str">
+            <v xml:space="preserve"> Brunei </v>
+          </cell>
+          <cell r="K62" t="str">
+            <v xml:space="preserve">Jalan Jaya Negara, Brunei </v>
+          </cell>
+          <cell r="L62" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="M62">
+            <v>63000</v>
+          </cell>
+          <cell r="N62" t="str">
+            <v>Sixty Three Thousand Euros Only</v>
+          </cell>
+          <cell r="O62" t="str">
+            <v>Senyu WPC Building Material Fencing</v>
+          </cell>
+          <cell r="P62">
+            <v>66</v>
+          </cell>
+          <cell r="Q62" t="str">
+            <v>TONS</v>
+          </cell>
+          <cell r="R62">
+            <v>954.55</v>
+          </cell>
+          <cell r="S62">
+            <v>63000</v>
+          </cell>
+          <cell r="AN62" t="str">
+            <v>17.GOLD</v>
+          </cell>
+          <cell r="AO62" t="str">
+            <v>EURO</v>
+          </cell>
+          <cell r="AP62">
+            <v>43372</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="A63" t="str">
+            <v>VT-116</v>
+          </cell>
+          <cell r="B63" t="str">
+            <v>GOLDEN CORAL LLC</v>
+          </cell>
+          <cell r="C63" t="str">
+            <v>Sharjah, United Arab Emirates</v>
+          </cell>
+          <cell r="D63" t="str">
+            <v xml:space="preserve">ERUDITE GENERAL TRADING SND BHD </v>
+          </cell>
+          <cell r="E63" t="str">
+            <v xml:space="preserve">Jalan Jaya Negara, Brunei </v>
+          </cell>
+          <cell r="F63" t="str">
+            <v>SHANGHAI TOHAN INTERNATIONAL TRADING CO., LTD</v>
+          </cell>
+          <cell r="G63" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="H63" t="str">
+            <v>VISION TRADING INTERNATIONAL FZE</v>
+          </cell>
+          <cell r="I63" t="str">
+            <v>Dubai, U.A.E</v>
+          </cell>
+          <cell r="J63" t="str">
+            <v xml:space="preserve"> Brunei </v>
+          </cell>
+          <cell r="K63" t="str">
+            <v xml:space="preserve">Jalan Jaya Negara, Brunei </v>
+          </cell>
+          <cell r="L63" t="str">
+            <v>Shanghai, China</v>
+          </cell>
+          <cell r="M63">
+            <v>860000</v>
+          </cell>
+          <cell r="N63" t="str">
+            <v>Eight Hundred Sixty Thousand U.S.Dollars Only</v>
+          </cell>
+          <cell r="O63" t="str">
+            <v>Wrinkle PPGI</v>
+          </cell>
+          <cell r="P63">
+            <v>212</v>
+          </cell>
+          <cell r="Q63" t="str">
+            <v>TONS</v>
+          </cell>
+          <cell r="R63">
+            <v>750</v>
+          </cell>
+          <cell r="S63">
+            <v>159000</v>
+          </cell>
+          <cell r="T63" t="str">
+            <v>Aluminium ExtrusionÂ BuildingÂ MaterialÂ Horizontal Sliding Windows</v>
+          </cell>
+          <cell r="U63">
+            <v>935</v>
+          </cell>
+          <cell r="V63" t="str">
+            <v>SQUARE METERS</v>
+          </cell>
+          <cell r="W63">
+            <v>70</v>
+          </cell>
+          <cell r="X63">
+            <v>65450</v>
+          </cell>
+          <cell r="Y63" t="str">
+            <v>Composite Reinforcement Floor Decking Sheet</v>
+          </cell>
+          <cell r="Z63">
+            <v>794</v>
+          </cell>
+          <cell r="AA63" t="str">
+            <v>TONS</v>
+          </cell>
+          <cell r="AB63">
+            <v>800.44</v>
+          </cell>
+          <cell r="AC63">
+            <v>635550</v>
+          </cell>
+          <cell r="AN63" t="str">
+            <v>17.GOLD</v>
+          </cell>
+          <cell r="AO63" t="str">
+            <v>USD</v>
+          </cell>
+          <cell r="AP63">
+            <v>43358</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1118,14 +5783,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D22F9702-F53E-4AB5-838A-B711BD2B4C73}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1165,14 +5842,14 @@
     <row r="4" spans="1:7" ht="79.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D4" s="10"/>
       <c r="E4" s="11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="71"/>
-      <c r="B5" s="71"/>
+      <c r="A5" s="115"/>
+      <c r="B5" s="115"/>
       <c r="C5" s="60"/>
       <c r="D5" s="62"/>
       <c r="E5" s="15"/>
@@ -1185,7 +5862,7 @@
       <c r="C6" s="60"/>
       <c r="D6" s="62"/>
       <c r="E6" s="18" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F6" s="63"/>
       <c r="G6" s="18"/>
@@ -1196,21 +5873,21 @@
       <c r="C7" s="60"/>
       <c r="D7" s="62"/>
       <c r="E7" s="18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F7" s="63"/>
       <c r="G7" s="18"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="72"/>
-      <c r="B8" s="72"/>
+      <c r="A8" s="116"/>
+      <c r="B8" s="116"/>
       <c r="C8" s="60"/>
       <c r="D8" s="62"/>
       <c r="E8" s="18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F8" s="65" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1219,31 +5896,31 @@
       <c r="C9" s="60"/>
       <c r="D9" s="7"/>
       <c r="E9" s="15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F9" s="66" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G9" s="17"/>
     </row>
     <row r="10" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="96" t="s">
+      <c r="A10" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="97"/>
+      <c r="B10" s="93"/>
       <c r="C10" s="22"/>
       <c r="D10" s="10"/>
       <c r="E10" s="15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F10" s="64" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G10" s="15"/>
     </row>
     <row r="11" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="98"/>
-      <c r="B11" s="99"/>
+      <c r="A11" s="94"/>
+      <c r="B11" s="95"/>
       <c r="C11" s="22"/>
       <c r="D11" s="10"/>
       <c r="E11" s="24"/>
@@ -1251,16 +5928,16 @@
       <c r="G11" s="17"/>
     </row>
     <row r="12" spans="1:7" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A12" s="100"/>
-      <c r="B12" s="101"/>
+      <c r="A12" s="96"/>
+      <c r="B12" s="97"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="102"/>
-      <c r="B13" s="103"/>
+      <c r="A13" s="117"/>
+      <c r="B13" s="118"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="28"/>
@@ -1275,132 +5952,132 @@
       <c r="F14" s="70"/>
     </row>
     <row r="15" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="104" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="105"/>
-      <c r="C15" s="113" t="s">
+      <c r="A15" s="98" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="99"/>
+      <c r="C15" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="114"/>
-      <c r="E15" s="115"/>
-      <c r="F15" s="105"/>
+      <c r="D15" s="106"/>
+      <c r="E15" s="107"/>
+      <c r="F15" s="99"/>
       <c r="G15" s="31"/>
     </row>
     <row r="16" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="106"/>
-      <c r="B16" s="107"/>
-      <c r="C16" s="116"/>
+      <c r="A16" s="119"/>
+      <c r="B16" s="120"/>
+      <c r="C16" s="108"/>
       <c r="D16" s="70"/>
-      <c r="E16" s="112"/>
-      <c r="F16" s="117"/>
+      <c r="E16" s="104"/>
+      <c r="F16" s="109"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="108"/>
-      <c r="B17" s="109"/>
-      <c r="C17" s="116"/>
+      <c r="A17" s="100"/>
+      <c r="B17" s="101"/>
+      <c r="C17" s="108"/>
       <c r="D17" s="70"/>
       <c r="E17" s="33"/>
-      <c r="F17" s="118"/>
+      <c r="F17" s="110"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="110"/>
-      <c r="B18" s="111"/>
-      <c r="C18" s="119"/>
-      <c r="D18" s="120"/>
-      <c r="E18" s="121"/>
-      <c r="F18" s="122"/>
+      <c r="A18" s="102"/>
+      <c r="B18" s="103"/>
+      <c r="C18" s="111"/>
+      <c r="D18" s="112"/>
+      <c r="E18" s="113"/>
+      <c r="F18" s="114"/>
     </row>
     <row r="19" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="35" t="s">
+      <c r="C19" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="35" t="s">
+      <c r="D19" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="35" t="s">
+      <c r="E19" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="35" t="s">
+      <c r="F19" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="35" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="20" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="80"/>
-      <c r="B20" s="81"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="84"/>
-      <c r="F20" s="85"/>
+      <c r="A20" s="76"/>
+      <c r="B20" s="77"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="81"/>
     </row>
     <row r="21" spans="1:9" s="34" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="86"/>
-      <c r="B21" s="78"/>
-      <c r="C21" s="75"/>
-      <c r="D21" s="76"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="87"/>
+      <c r="A21" s="82"/>
+      <c r="B21" s="74"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="83"/>
     </row>
     <row r="22" spans="1:9" s="34" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="86"/>
+      <c r="A22" s="82"/>
       <c r="B22" s="37"/>
       <c r="C22" s="38"/>
       <c r="D22" s="38"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="88"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="84"/>
       <c r="H22" s="36"/>
       <c r="I22" s="36"/>
     </row>
     <row r="23" spans="1:9" s="34" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="86"/>
+      <c r="A23" s="82"/>
       <c r="B23" s="37"/>
       <c r="C23" s="38"/>
       <c r="D23" s="38"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="88"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="84"/>
     </row>
     <row r="24" spans="1:9" s="34" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="86"/>
+      <c r="A24" s="82"/>
       <c r="B24" s="37"/>
       <c r="C24" s="38"/>
       <c r="D24" s="38"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="88"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="84"/>
       <c r="H24" s="36"/>
     </row>
     <row r="25" spans="1:9" s="34" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="86"/>
+      <c r="A25" s="82"/>
       <c r="B25" s="37"/>
       <c r="C25" s="38"/>
       <c r="D25" s="38"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="88"/>
+      <c r="E25" s="75"/>
+      <c r="F25" s="84"/>
     </row>
     <row r="26" spans="1:9" s="34" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="86"/>
+      <c r="A26" s="82"/>
       <c r="B26" s="37"/>
       <c r="C26" s="38"/>
       <c r="D26" s="38"/>
-      <c r="E26" s="79"/>
-      <c r="F26" s="88"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="84"/>
     </row>
     <row r="27" spans="1:9" s="34" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="89"/>
-      <c r="B27" s="90"/>
-      <c r="C27" s="91"/>
-      <c r="D27" s="91"/>
-      <c r="E27" s="92"/>
-      <c r="F27" s="88"/>
+      <c r="A27" s="85"/>
+      <c r="B27" s="86"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="87"/>
+      <c r="E27" s="88"/>
+      <c r="F27" s="84"/>
     </row>
     <row r="28" spans="1:9" s="34" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B28" s="37"/>
       <c r="C28" s="38"/>
@@ -1408,7 +6085,7 @@
       <c r="E28" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="F28" s="93"/>
+      <c r="F28" s="89"/>
     </row>
     <row r="29" spans="1:9" s="34" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="32"/>
@@ -1418,7 +6095,7 @@
       <c r="E29" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="F29" s="94"/>
+      <c r="F29" s="90"/>
     </row>
     <row r="30" spans="1:9" s="34" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="37"/>
@@ -1426,13 +6103,13 @@
       <c r="C30" s="41"/>
       <c r="D30" s="41"/>
       <c r="E30" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="F30" s="95"/>
+        <v>18</v>
+      </c>
+      <c r="F30" s="91"/>
     </row>
     <row r="31" spans="1:9" s="34" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="67" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B31" s="45"/>
       <c r="C31" s="5"/>
@@ -1442,7 +6119,7 @@
     </row>
     <row r="32" spans="1:9" s="34" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="68" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B32" s="45"/>
       <c r="C32" s="46"/>
@@ -1452,7 +6129,7 @@
     </row>
     <row r="33" spans="1:9" s="34" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="69" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B33" s="45"/>
       <c r="C33" s="46"/>
@@ -1462,11 +6139,11 @@
     </row>
     <row r="34" spans="1:9" s="34" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="69" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B34" s="45"/>
       <c r="C34" s="46" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D34" s="46"/>
       <c r="E34" s="46"/>
@@ -1552,438 +6229,282 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I54"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A8:H38"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A20" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="54.7109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="7" style="5" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="7" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" style="7" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="45.7109375" style="153" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" style="153" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="153" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" style="153" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="153" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="153" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="153" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="153" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.7109375" style="153"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
-      <c r="G1" s="6"/>
-    </row>
-    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-    </row>
-    <row r="4" spans="1:7" ht="79.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D4" s="10"/>
-      <c r="E4" s="11" t="s">
+    <row r="8" spans="1:5" s="123" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:5" s="123" customFormat="1" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="71"/>
-      <c r="B5" s="71"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="17"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="72"/>
-      <c r="B8" s="72"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-    </row>
-    <row r="10" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="96" t="s">
+      <c r="B9" s="124"/>
+      <c r="C9" s="124"/>
+      <c r="D9" s="124"/>
+      <c r="E9" s="124"/>
+    </row>
+    <row r="10" spans="1:5" s="123" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="97"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-    </row>
-    <row r="11" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="98"/>
-      <c r="B11" s="99"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="17"/>
-    </row>
-    <row r="12" spans="1:7" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A12" s="100"/>
-      <c r="B12" s="101"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="102"/>
-      <c r="B13" s="103"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="29"/>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="30"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-    </row>
-    <row r="15" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="104" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="105"/>
-      <c r="C15" s="113" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="114"/>
-      <c r="E15" s="115"/>
-      <c r="F15" s="105"/>
-      <c r="G15" s="31"/>
-    </row>
-    <row r="16" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="106"/>
-      <c r="B16" s="107"/>
-      <c r="C16" s="116"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="112"/>
-      <c r="F16" s="117"/>
-    </row>
-    <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="108"/>
-      <c r="B17" s="109"/>
-      <c r="C17" s="116"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="118"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="110"/>
-      <c r="B18" s="111"/>
-      <c r="C18" s="119"/>
-      <c r="D18" s="120"/>
-      <c r="E18" s="121"/>
-      <c r="F18" s="122"/>
-    </row>
-    <row r="19" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="35" t="s">
+      <c r="D10" s="126" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="127">
+        <v>43233</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="123" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="125" t="str">
+        <f>VLOOKUP(E11,'[1]Tracking Sheet output'!A1:AP63,4,FALSE)</f>
+        <v>AFS TEKNIK DANISMANLIK SAN.VE TIC.LTD.STI</v>
+      </c>
+      <c r="D11" s="128" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="123" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="129"/>
+      <c r="D12" s="126"/>
+      <c r="E12" s="126"/>
+    </row>
+    <row r="13" spans="1:5" s="123" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="126"/>
+      <c r="B13" s="126"/>
+      <c r="C13" s="126"/>
+      <c r="D13" s="126"/>
+      <c r="E13" s="126"/>
+    </row>
+    <row r="14" spans="1:5" s="123" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="130" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="126"/>
+      <c r="C14" s="131" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="131"/>
+      <c r="E14" s="131"/>
+    </row>
+    <row r="15" spans="1:5" s="123" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="126"/>
+      <c r="B15" s="126"/>
+      <c r="C15" s="126"/>
+      <c r="D15" s="126"/>
+      <c r="E15" s="126"/>
+    </row>
+    <row r="16" spans="1:5" s="123" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="126"/>
+      <c r="B16" s="126"/>
+      <c r="C16" s="126"/>
+      <c r="D16" s="126"/>
+      <c r="E16" s="126"/>
+    </row>
+    <row r="17" spans="1:8" s="123" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="126"/>
+      <c r="B17" s="126"/>
+      <c r="C17" s="126"/>
+      <c r="D17" s="126"/>
+      <c r="E17" s="126"/>
+    </row>
+    <row r="18" spans="1:8" s="123" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="132" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="133" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="133"/>
+      <c r="D18" s="133" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="133"/>
+    </row>
+    <row r="19" spans="1:8" s="136" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="134"/>
+      <c r="B19" s="135"/>
+      <c r="C19" s="135"/>
+      <c r="D19" s="135"/>
+      <c r="E19" s="135"/>
+    </row>
+    <row r="20" spans="1:8" s="123" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:8" s="123" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="137" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="137" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="137" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="137" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="137" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="123" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="138"/>
+      <c r="B22" s="139"/>
+      <c r="C22" s="139"/>
+      <c r="D22" s="140"/>
+      <c r="E22" s="141"/>
+      <c r="F22" s="142"/>
+      <c r="H22" s="142"/>
+    </row>
+    <row r="23" spans="1:8" s="123" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="143"/>
+      <c r="B23" s="144"/>
+      <c r="C23" s="144"/>
+      <c r="D23" s="145"/>
+      <c r="E23" s="146"/>
+    </row>
+    <row r="24" spans="1:8" s="123" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="143"/>
+      <c r="B24" s="144"/>
+      <c r="C24" s="144"/>
+      <c r="D24" s="145"/>
+      <c r="E24" s="146"/>
+    </row>
+    <row r="25" spans="1:8" s="123" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="143"/>
+      <c r="B25" s="144"/>
+      <c r="C25" s="144"/>
+      <c r="D25" s="145"/>
+      <c r="E25" s="146"/>
+    </row>
+    <row r="26" spans="1:8" s="123" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="147"/>
+      <c r="B26" s="148"/>
+      <c r="C26" s="148"/>
+      <c r="D26" s="149"/>
+      <c r="E26" s="146"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="150" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="80"/>
-      <c r="B20" s="81"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="84"/>
-      <c r="F20" s="85"/>
-    </row>
-    <row r="21" spans="1:9" s="34" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="86"/>
-      <c r="B21" s="78"/>
-      <c r="C21" s="75"/>
-      <c r="D21" s="76"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="87"/>
-    </row>
-    <row r="22" spans="1:9" s="34" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="86"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="88"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-    </row>
-    <row r="23" spans="1:9" s="34" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="86"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="88"/>
-    </row>
-    <row r="24" spans="1:9" s="34" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="86"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="88"/>
-      <c r="H24" s="36"/>
-    </row>
-    <row r="25" spans="1:9" s="34" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="86"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="88"/>
-    </row>
-    <row r="26" spans="1:9" s="34" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="86"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="79"/>
-      <c r="F26" s="88"/>
-    </row>
-    <row r="27" spans="1:9" s="34" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="89"/>
-      <c r="B27" s="90"/>
-      <c r="C27" s="91"/>
-      <c r="D27" s="91"/>
-      <c r="E27" s="92"/>
-      <c r="F27" s="88"/>
-    </row>
-    <row r="28" spans="1:9" s="34" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28" s="37"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="F28" s="93"/>
-    </row>
-    <row r="29" spans="1:9" s="34" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="32"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="F29" s="94"/>
-    </row>
-    <row r="30" spans="1:9" s="34" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="37"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="F30" s="95"/>
-    </row>
-    <row r="31" spans="1:9" s="34" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="67" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" s="45"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-    </row>
-    <row r="32" spans="1:9" s="34" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="68" t="s">
-        <v>26</v>
-      </c>
-      <c r="B32" s="45"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-    </row>
-    <row r="33" spans="1:9" s="34" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="69" t="s">
-        <v>27</v>
-      </c>
-      <c r="B33" s="45"/>
-      <c r="C33" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="46"/>
-    </row>
-    <row r="34" spans="1:9" s="34" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="69" t="s">
-        <v>28</v>
-      </c>
-      <c r="B34" s="45"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="47"/>
-      <c r="I34" s="48"/>
-    </row>
-    <row r="35" spans="1:9" s="34" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="52"/>
-      <c r="B35" s="45"/>
-      <c r="C35" s="46"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="46"/>
-      <c r="G35" s="47"/>
-      <c r="I35" s="48"/>
-    </row>
-    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C36" s="46"/>
-      <c r="D36" s="46"/>
-      <c r="E36" s="46"/>
-      <c r="F36" s="46"/>
-    </row>
-    <row r="37" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C37" s="46"/>
-      <c r="D37" s="46"/>
-      <c r="E37" s="46"/>
-      <c r="F37" s="46"/>
-    </row>
-    <row r="38" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C38" s="46"/>
-      <c r="D38" s="46"/>
-      <c r="E38" s="46"/>
-      <c r="F38" s="46"/>
-    </row>
-    <row r="39" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="46"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="46"/>
-      <c r="F39" s="46"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="46"/>
-      <c r="B40" s="46"/>
-      <c r="C40" s="46"/>
-      <c r="D40" s="46"/>
-      <c r="E40" s="46"/>
-      <c r="F40" s="46"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B48" s="50"/>
-      <c r="C48" s="50"/>
-      <c r="D48" s="50"/>
-      <c r="E48" s="50"/>
-      <c r="F48" s="50"/>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B49" s="50"/>
-      <c r="C49" s="50"/>
-      <c r="D49" s="50"/>
-      <c r="E49" s="50"/>
-      <c r="F49" s="50"/>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="G53" s="50"/>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="G54" s="50"/>
+      <c r="B27" s="150"/>
+      <c r="C27" s="150"/>
+      <c r="D27" s="151" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="152"/>
+    </row>
+    <row r="28" spans="1:8" s="123" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="154"/>
+      <c r="B28" s="154"/>
+      <c r="C28" s="154"/>
+      <c r="D28" s="151" t="s">
+        <v>51</v>
+      </c>
+      <c r="E28" s="152"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="155"/>
+      <c r="B29" s="156"/>
+      <c r="C29" s="156"/>
+      <c r="D29" s="151" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29" s="152"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="157" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="158"/>
+      <c r="C30" s="158"/>
+      <c r="D30" s="158"/>
+      <c r="E30" s="158"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="159" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="160"/>
+      <c r="C31" s="160"/>
+      <c r="D31" s="158"/>
+      <c r="E31" s="158"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="161" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="160"/>
+      <c r="C32" s="160"/>
+      <c r="D32" s="158"/>
+      <c r="E32" s="158"/>
+    </row>
+    <row r="33" spans="1:5" s="136" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="161" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" s="162"/>
+      <c r="C33" s="162"/>
+      <c r="D33" s="162"/>
+      <c r="E33" s="162"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="163" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="164"/>
+      <c r="C34" s="164"/>
+      <c r="D34" s="165"/>
+      <c r="E34" s="158"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C37" s="166" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" s="166"/>
+      <c r="E37" s="166"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="167"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A16:B16"/>
+  <mergeCells count="9">
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
   </mergeCells>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.25" right="0.25" top="1" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="86" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter scaleWithDoc="0">
-    <oddHeader>&amp;C&amp;G</oddHeader>
-    <oddFooter>&amp;C&amp;G</oddFooter>
-  </headerFooter>
-  <legacyDrawingHF r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I56"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -2027,14 +6548,14 @@
     <row r="4" spans="1:7" ht="102.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D4" s="10"/>
       <c r="E4" s="11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="71"/>
-      <c r="B5" s="71"/>
+      <c r="A5" s="115"/>
+      <c r="B5" s="115"/>
       <c r="C5" s="13"/>
       <c r="D5" s="14"/>
       <c r="E5" s="15"/>
@@ -2047,7 +6568,7 @@
       <c r="C6" s="13"/>
       <c r="D6" s="14"/>
       <c r="E6" s="18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F6" s="18"/>
       <c r="G6" s="18"/>
@@ -2058,14 +6579,14 @@
       <c r="C7" s="13"/>
       <c r="D7" s="14"/>
       <c r="E7" s="18" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F7" s="18"/>
       <c r="G7" s="18"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="72"/>
-      <c r="B8" s="72"/>
+      <c r="A8" s="116"/>
+      <c r="B8" s="116"/>
       <c r="C8" s="13"/>
       <c r="D8" s="14"/>
       <c r="E8" s="18" t="s">
@@ -2115,8 +6636,8 @@
       <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="73"/>
-      <c r="B13" s="73"/>
+      <c r="A13" s="122"/>
+      <c r="B13" s="122"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="28"/>
@@ -2131,132 +6652,132 @@
       <c r="F14" s="14"/>
     </row>
     <row r="15" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="104" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="105"/>
-      <c r="C15" s="113" t="s">
+      <c r="A15" s="98" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="99"/>
+      <c r="C15" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="114"/>
-      <c r="E15" s="115"/>
-      <c r="F15" s="105"/>
+      <c r="D15" s="106"/>
+      <c r="E15" s="107"/>
+      <c r="F15" s="99"/>
       <c r="G15" s="31"/>
     </row>
     <row r="16" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="106"/>
-      <c r="B16" s="107"/>
-      <c r="C16" s="116"/>
+      <c r="A16" s="119"/>
+      <c r="B16" s="120"/>
+      <c r="C16" s="108"/>
       <c r="D16" s="70"/>
-      <c r="E16" s="112"/>
-      <c r="F16" s="117"/>
+      <c r="E16" s="104"/>
+      <c r="F16" s="109"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="108"/>
-      <c r="B17" s="109"/>
-      <c r="C17" s="116"/>
+      <c r="A17" s="100"/>
+      <c r="B17" s="101"/>
+      <c r="C17" s="108"/>
       <c r="D17" s="70"/>
       <c r="E17" s="33"/>
-      <c r="F17" s="118"/>
+      <c r="F17" s="110"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="110"/>
-      <c r="B18" s="111"/>
-      <c r="C18" s="119"/>
-      <c r="D18" s="120"/>
-      <c r="E18" s="121"/>
-      <c r="F18" s="122"/>
+      <c r="A18" s="102"/>
+      <c r="B18" s="103"/>
+      <c r="C18" s="111"/>
+      <c r="D18" s="112"/>
+      <c r="E18" s="113"/>
+      <c r="F18" s="114"/>
     </row>
     <row r="19" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="35" t="s">
+      <c r="C19" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="35" t="s">
+      <c r="D19" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="35" t="s">
+      <c r="E19" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="35" t="s">
+      <c r="F19" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="35" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="20" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="80"/>
-      <c r="B20" s="81"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="84"/>
-      <c r="F20" s="85"/>
+      <c r="A20" s="76"/>
+      <c r="B20" s="77"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="81"/>
     </row>
     <row r="21" spans="1:9" s="34" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="86"/>
-      <c r="B21" s="78"/>
-      <c r="C21" s="75"/>
-      <c r="D21" s="76"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="87"/>
+      <c r="A21" s="82"/>
+      <c r="B21" s="74"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="83"/>
     </row>
     <row r="22" spans="1:9" s="34" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="86"/>
+      <c r="A22" s="82"/>
       <c r="B22" s="37"/>
       <c r="C22" s="38"/>
       <c r="D22" s="38"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="88"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="84"/>
       <c r="H22" s="36"/>
       <c r="I22" s="36"/>
     </row>
     <row r="23" spans="1:9" s="34" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="86"/>
+      <c r="A23" s="82"/>
       <c r="B23" s="37"/>
       <c r="C23" s="38"/>
       <c r="D23" s="38"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="88"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="84"/>
     </row>
     <row r="24" spans="1:9" s="34" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="86"/>
+      <c r="A24" s="82"/>
       <c r="B24" s="37"/>
       <c r="C24" s="38"/>
       <c r="D24" s="38"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="88"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="84"/>
       <c r="H24" s="36"/>
     </row>
     <row r="25" spans="1:9" s="34" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="86"/>
+      <c r="A25" s="82"/>
       <c r="B25" s="37"/>
       <c r="C25" s="38"/>
       <c r="D25" s="38"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="88"/>
+      <c r="E25" s="75"/>
+      <c r="F25" s="84"/>
     </row>
     <row r="26" spans="1:9" s="34" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="86"/>
+      <c r="A26" s="82"/>
       <c r="B26" s="37"/>
       <c r="C26" s="38"/>
       <c r="D26" s="38"/>
-      <c r="E26" s="79"/>
-      <c r="F26" s="88"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="84"/>
     </row>
     <row r="27" spans="1:9" s="34" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="89"/>
-      <c r="B27" s="90"/>
-      <c r="C27" s="91"/>
-      <c r="D27" s="91"/>
-      <c r="E27" s="92"/>
-      <c r="F27" s="88"/>
+      <c r="A27" s="85"/>
+      <c r="B27" s="86"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="87"/>
+      <c r="E27" s="88"/>
+      <c r="F27" s="84"/>
     </row>
     <row r="28" spans="1:9" s="34" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B28" s="37"/>
       <c r="C28" s="38"/>
@@ -2264,7 +6785,7 @@
       <c r="E28" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="F28" s="93"/>
+      <c r="F28" s="89"/>
     </row>
     <row r="29" spans="1:9" s="34" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="32"/>
@@ -2274,7 +6795,7 @@
       <c r="E29" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="F29" s="94"/>
+      <c r="F29" s="90"/>
     </row>
     <row r="30" spans="1:9" s="34" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="37"/>
@@ -2282,13 +6803,13 @@
       <c r="C30" s="41"/>
       <c r="D30" s="41"/>
       <c r="E30" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="F30" s="95"/>
+        <v>18</v>
+      </c>
+      <c r="F30" s="91"/>
     </row>
     <row r="31" spans="1:9" s="34" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="67" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B31" s="43"/>
       <c r="C31" s="5"/>
@@ -2298,7 +6819,7 @@
     </row>
     <row r="32" spans="1:9" s="34" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="68" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B32" s="45"/>
       <c r="C32" s="46"/>
@@ -2308,7 +6829,7 @@
     </row>
     <row r="33" spans="1:9" s="34" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="69" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B33" s="51"/>
       <c r="C33" s="46"/>
@@ -2318,19 +6839,19 @@
     </row>
     <row r="34" spans="1:9" s="34" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="69" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B34" s="51"/>
       <c r="C34" s="46"/>
       <c r="D34" s="46" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E34" s="46"/>
       <c r="F34" s="46"/>
     </row>
     <row r="35" spans="1:9" s="34" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="74"/>
-      <c r="B35" s="74"/>
+      <c r="A35" s="121"/>
+      <c r="B35" s="121"/>
       <c r="C35" s="46"/>
       <c r="D35" s="46"/>
       <c r="E35" s="46"/>
@@ -2427,8 +6948,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2444,19 +6965,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="C1" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="D1" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="E1" s="58" t="s">
         <v>16</v>
-      </c>
-      <c r="E1" s="58" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
